--- a/探头测试记录.xlsx
+++ b/探头测试记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACAA97-C498-4A2A-B3EB-5367431A7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26A18D-8B61-42E2-B04F-5363E7C87B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,11 +551,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -563,13 +566,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,30 +1743,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="K1" s="25" t="s">
+      <c r="F1" s="20"/>
+      <c r="K1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="22"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -4433,6 +4433,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K19:K34"/>
     <mergeCell ref="K35:K50"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -4441,10 +4445,6 @@
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="A35:A50"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="K19:K34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,7 +4456,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4465,18 +4465,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4524,13 +4524,19 @@
       <c r="E3" s="4">
         <v>27.760221000000001</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="e">
+      <c r="F3" s="4">
+        <v>-34.389839000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>99.890686000000002</v>
+      </c>
+      <c r="H3" s="4">
         <f>G3/SQRT(ABS(F3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>17.033736484968681</v>
+      </c>
+      <c r="I3" s="4">
+        <v>24.679403000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -4547,13 +4553,19 @@
       <c r="E4" s="4">
         <v>27.353518999999999</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="e">
+      <c r="F4" s="4">
+        <v>-78.035544999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>149.96929900000001</v>
+      </c>
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H16" si="1">G4/SQRT(ABS(F4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>16.976811538997367</v>
+      </c>
+      <c r="I4" s="4">
+        <v>24.657637000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4570,13 +4582,19 @@
       <c r="E5" s="4">
         <v>26.974198999999999</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="e">
+      <c r="F5" s="4">
+        <v>-142.608307</v>
+      </c>
+      <c r="G5" s="4">
+        <v>199.980988</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>16.746200922678806</v>
+      </c>
+      <c r="I5" s="4">
+        <v>24.654040999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -4593,13 +4611,19 @@
       <c r="E6" s="4">
         <v>26.718150999999999</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="e">
+      <c r="F6" s="4">
+        <v>-228.319458</v>
+      </c>
+      <c r="G6" s="4">
+        <v>250.004761</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>16.545382696482061</v>
+      </c>
+      <c r="I6" s="4">
+        <v>24.668879</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
@@ -4616,13 +4640,19 @@
       <c r="E7" s="4">
         <v>26.597147</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="e">
+      <c r="F7" s="4">
+        <v>-326.52413899999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>299.99115</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>16.601632516922457</v>
+      </c>
+      <c r="I7" s="4">
+        <v>24.783978000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
@@ -4639,13 +4669,19 @@
       <c r="E8" s="4">
         <v>26.489889000000002</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="e">
+      <c r="F8" s="4">
+        <v>-440.20236199999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>350.00491299999999</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>16.681993832631903</v>
+      </c>
+      <c r="I8" s="4">
+        <v>25.12764</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -4662,13 +4698,19 @@
       <c r="E9" s="4">
         <v>26.643073999999999</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="e">
+      <c r="F9" s="4">
+        <v>-581.25195299999996</v>
+      </c>
+      <c r="G9" s="4">
+        <v>399.99542200000002</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>16.591009356220162</v>
+      </c>
+      <c r="I9" s="4">
+        <v>25.58877</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
@@ -4685,13 +4727,19 @@
       <c r="E10" s="4">
         <v>27.016604999999998</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="e">
+      <c r="F10" s="4">
+        <v>-719.92602499999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>449.99710099999999</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>16.771263379450978</v>
+      </c>
+      <c r="I10" s="4">
+        <v>26.050488999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -4708,13 +4756,19 @@
       <c r="E11" s="4">
         <v>27.625219000000001</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="e">
+      <c r="F11" s="4">
+        <v>-920.01715100000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>499.97305299999999</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>16.483469773683133</v>
+      </c>
+      <c r="I11" s="4">
+        <v>26.596419999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
@@ -4731,13 +4785,19 @@
       <c r="E12" s="4">
         <v>28.341455</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="e">
+      <c r="F12" s="4">
+        <v>-1087.00415</v>
+      </c>
+      <c r="G12" s="4">
+        <v>549.95886199999995</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>16.680712745861111</v>
+      </c>
+      <c r="I12" s="4">
+        <v>27.219702000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
@@ -4754,13 +4814,19 @@
       <c r="E13" s="4">
         <v>29.159592</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="e">
+      <c r="F13" s="4">
+        <v>-1270.0394289999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>599.996216</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>16.83603846874778</v>
+      </c>
+      <c r="I13" s="4">
+        <v>28.088706999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -4777,13 +4843,19 @@
       <c r="E14" s="4">
         <v>30.148329</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="e">
+      <c r="F14" s="4">
+        <v>-1467.364014</v>
+      </c>
+      <c r="G14" s="4">
+        <v>649.95471199999997</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="4"/>
+        <v>16.967355706524078</v>
+      </c>
+      <c r="I14" s="4">
+        <v>28.984885999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -4800,13 +4872,19 @@
       <c r="E15" s="4">
         <v>31.228735</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="e">
+      <c r="F15" s="4">
+        <v>-1637.4183350000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>699.97796600000004</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="4"/>
+        <v>17.298344618786409</v>
+      </c>
+      <c r="I15" s="4">
+        <v>30.066735999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -4823,13 +4901,19 @@
       <c r="E16" s="4">
         <v>32.337783999999999</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="e">
+      <c r="F16" s="4">
+        <v>-1638.400024</v>
+      </c>
+      <c r="G16" s="4">
+        <v>737.53405799999996</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>18.220995766754267</v>
+      </c>
+      <c r="I16" s="4">
+        <v>31.421216999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -4842,9 +4926,9 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="6" t="e">
+      <c r="F17" s="6">
         <f>(G17/H16)^2</f>
-        <v>#DIV/0!</v>
+        <v>1927.6836309135326</v>
       </c>
       <c r="G17" s="4">
         <v>800</v>
@@ -4866,9 +4950,9 @@
       <c r="F18" s="4">
         <v>1500</v>
       </c>
-      <c r="G18" s="6" t="e">
+      <c r="G18" s="6">
         <f>SQRT(F18)*H16</f>
-        <v>#DIV/0!</v>
+        <v>705.69613155955119</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -4890,13 +4974,19 @@
       <c r="E19" s="4">
         <v>25.475118999999999</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="e">
+      <c r="F19" s="4">
+        <v>-19.570204</v>
+      </c>
+      <c r="G19" s="4">
+        <v>99.959205999999995</v>
+      </c>
+      <c r="H19" s="4">
         <f>G19/SQRT(ABS(F19))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>22.595664690474923</v>
+      </c>
+      <c r="I19" s="4">
+        <v>25.444676999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -4913,13 +5003,19 @@
       <c r="E20" s="4">
         <v>25.407336999999998</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="e">
+      <c r="F20" s="4">
+        <v>-46.670848999999997</v>
+      </c>
+      <c r="G20" s="4">
+        <v>149.959</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" ref="H20:H32" si="3">G20/SQRT(ABS(F20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>21.950766248416237</v>
+      </c>
+      <c r="I20" s="4">
+        <v>25.235437000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
@@ -4936,13 +5032,19 @@
       <c r="E21" s="4">
         <v>25.409068999999999</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="e">
+      <c r="F21" s="4">
+        <v>-84.889129999999994</v>
+      </c>
+      <c r="G21" s="4">
+        <v>199.98262</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="4"/>
+        <v>21.705320974833544</v>
+      </c>
+      <c r="I21" s="4">
+        <v>25.161456999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -4959,13 +5061,19 @@
       <c r="E22" s="4">
         <v>25.495992999999999</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="e">
+      <c r="F22" s="4">
+        <v>-136.54814099999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>249.98628199999999</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="4"/>
+        <v>21.39307833616051</v>
+      </c>
+      <c r="I22" s="4">
+        <v>25.137295000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
@@ -4982,13 +5090,19 @@
       <c r="E23" s="4">
         <v>25.651309999999999</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="e">
+      <c r="F23" s="4">
+        <v>-197.755402</v>
+      </c>
+      <c r="G23" s="4">
+        <v>299.99182100000002</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>21.332671038811984</v>
+      </c>
+      <c r="I23" s="4">
+        <v>25.154475999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
@@ -5005,13 +5119,19 @@
       <c r="E24" s="4">
         <v>25.897326</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="e">
+      <c r="F24" s="4">
+        <v>-258.72015399999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>349.97747800000002</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>21.758300312718784</v>
+      </c>
+      <c r="I24" s="4">
+        <v>25.265743000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -5028,13 +5148,19 @@
       <c r="E25" s="4">
         <v>26.207460000000001</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="e">
+      <c r="F25" s="4">
+        <v>-319.621307</v>
+      </c>
+      <c r="G25" s="4">
+        <v>399.96484400000003</v>
+      </c>
+      <c r="H25" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="4"/>
+        <v>22.371956074775685</v>
+      </c>
+      <c r="I25" s="4">
+        <v>25.539380999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -5051,13 +5177,19 @@
       <c r="E26" s="4">
         <v>26.645498</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="e">
+      <c r="F26" s="4">
+        <v>-378.43682899999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>449.946777</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="4"/>
+        <v>23.129404314411868</v>
+      </c>
+      <c r="I26" s="4">
+        <v>25.963121000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -5074,13 +5206,19 @@
       <c r="E27" s="4">
         <v>27.205189000000001</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="e">
+      <c r="F27" s="4">
+        <v>-442.36343399999998</v>
+      </c>
+      <c r="G27" s="4">
+        <v>499.991669</v>
+      </c>
+      <c r="H27" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="4"/>
+        <v>23.772407033289102</v>
+      </c>
+      <c r="I27" s="4">
+        <v>26.571846000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -5097,13 +5235,19 @@
       <c r="E28" s="4">
         <v>27.785098999999999</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="e">
+      <c r="F28" s="4">
+        <v>-519.86804199999995</v>
+      </c>
+      <c r="G28" s="4">
+        <v>549.99517800000001</v>
+      </c>
+      <c r="H28" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="4"/>
+        <v>24.121944923767337</v>
+      </c>
+      <c r="I28" s="4">
+        <v>27.24165</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
@@ -5120,13 +5264,19 @@
       <c r="E29" s="4">
         <v>28.459817999999999</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="e">
+      <c r="F29" s="4">
+        <v>-608.51385500000004</v>
+      </c>
+      <c r="G29" s="4">
+        <v>599.97833300000002</v>
+      </c>
+      <c r="H29" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>24.322058657493287</v>
+      </c>
+      <c r="I29" s="4">
+        <v>27.983124</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -5143,13 +5293,19 @@
       <c r="E30" s="4">
         <v>29.265965999999999</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="e">
+      <c r="F30" s="4">
+        <v>-706.79894999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>649.92761199999995</v>
+      </c>
+      <c r="H30" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>24.446519721159301</v>
+      </c>
+      <c r="I30" s="4">
+        <v>29.010895000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
@@ -5166,13 +5322,19 @@
       <c r="E31" s="4">
         <v>30.123919999999998</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="e">
+      <c r="F31" s="4">
+        <v>-830.33660899999995</v>
+      </c>
+      <c r="G31" s="4">
+        <v>699.96606399999996</v>
+      </c>
+      <c r="H31" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="4"/>
+        <v>24.291251575950451</v>
+      </c>
+      <c r="I31" s="4">
+        <v>30.114671999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
@@ -5189,13 +5351,19 @@
       <c r="E32" s="4">
         <v>31.079537999999999</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="e">
+      <c r="F32" s="4">
+        <v>-937.25091599999996</v>
+      </c>
+      <c r="G32" s="4">
+        <v>737.07922399999995</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="4"/>
+        <v>24.076105248613651</v>
+      </c>
+      <c r="I32" s="4">
+        <v>31.211403000000001</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
@@ -5208,9 +5376,9 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="6" t="e">
+      <c r="F33" s="6">
         <f>(G33/H32)^2</f>
-        <v>#DIV/0!</v>
+        <v>1104.0977062426782</v>
       </c>
       <c r="G33" s="4">
         <v>800</v>
@@ -5232,9 +5400,9 @@
       <c r="F34" s="4">
         <v>1500</v>
       </c>
-      <c r="G34" s="6" t="e">
+      <c r="G34" s="6">
         <f>SQRT(F34)*H32</f>
-        <v>#DIV/0!</v>
+        <v>932.46354669417644</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -5601,12 +5769,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A35:A50"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A50"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5630,15 +5798,15 @@
       <c r="A1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -18963,87 +19131,87 @@
       <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="F1" s="20"/>
+      <c r="K1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="U1" s="22" t="s">
+      <c r="P1" s="23"/>
+      <c r="U1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="22" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="22"/>
+      <c r="Z1" s="23"/>
       <c r="AE1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="20"/>
+      <c r="AF1" s="22"/>
       <c r="AG1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="20"/>
+      <c r="AH1" s="22"/>
       <c r="AI1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="24"/>
+      <c r="AJ1" s="20"/>
       <c r="AO1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="20"/>
+      <c r="AP1" s="22"/>
       <c r="AQ1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="20"/>
+      <c r="AR1" s="22"/>
       <c r="AS1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="24"/>
+      <c r="AT1" s="20"/>
       <c r="AY1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AZ1" s="20"/>
+      <c r="AZ1" s="22"/>
       <c r="BA1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="BB1" s="20"/>
+      <c r="BB1" s="22"/>
       <c r="BC1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BD1" s="24"/>
+      <c r="BD1" s="20"/>
       <c r="BI1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="20"/>
+      <c r="BJ1" s="22"/>
       <c r="BK1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="20"/>
+      <c r="BL1" s="22"/>
       <c r="BM1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="24"/>
+      <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -30818,34 +30986,16 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BI3:BI18"/>
-    <mergeCell ref="BI19:BI34"/>
-    <mergeCell ref="BI35:BI50"/>
-    <mergeCell ref="BI51:BI66"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY3:AY18"/>
-    <mergeCell ref="AY19:AY34"/>
-    <mergeCell ref="AY35:AY50"/>
-    <mergeCell ref="AY51:AY66"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AO3:AO18"/>
-    <mergeCell ref="AO19:AO34"/>
-    <mergeCell ref="AO35:AO50"/>
-    <mergeCell ref="AO51:AO66"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K19:K34"/>
+    <mergeCell ref="K35:K50"/>
+    <mergeCell ref="K51:K66"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="A51:A66"/>
     <mergeCell ref="AE3:AE18"/>
     <mergeCell ref="AE19:AE34"/>
     <mergeCell ref="AE35:AE50"/>
@@ -30857,16 +31007,34 @@
     <mergeCell ref="U35:U50"/>
     <mergeCell ref="U51:U66"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="K51:K66"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A50"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="K19:K34"/>
-    <mergeCell ref="K35:K50"/>
+    <mergeCell ref="AY35:AY50"/>
+    <mergeCell ref="AY51:AY66"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AO3:AO18"/>
+    <mergeCell ref="AO19:AO34"/>
+    <mergeCell ref="AO35:AO50"/>
+    <mergeCell ref="AO51:AO66"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY3:AY18"/>
+    <mergeCell ref="AY19:AY34"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BI3:BI18"/>
+    <mergeCell ref="BI19:BI34"/>
+    <mergeCell ref="BI35:BI50"/>
+    <mergeCell ref="BI51:BI66"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/探头测试记录.xlsx
+++ b/探头测试记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78D877-34A1-4D35-9AD6-57D9B756B8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695BA6C1-4F8E-4B06-A1B2-CBA5D4884E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10-12-v2.2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="12-4-v2.4.5" sheetId="16" r:id="rId10"/>
     <sheet name="12-5-v2.4" sheetId="17" r:id="rId11"/>
     <sheet name="12-27-v3.0" sheetId="18" r:id="rId12"/>
-    <sheet name="模板" sheetId="15" r:id="rId13"/>
+    <sheet name="12-30-v3.0" sheetId="19" r:id="rId13"/>
+    <sheet name="模板" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="93">
   <si>
     <t>型号</t>
   </si>
@@ -310,6 +311,26 @@
   </si>
   <si>
     <t>24*2mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2024-12-30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度：21℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境湿度：15%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*2mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*2mm</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4418,7 +4439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -5748,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02102A96-E03E-4964-B0A4-ADA5A8A05955}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5811,19 +5832,25 @@
         <v>99.890472000000003</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/SQRT(ABS(B3))</f>
+        <f t="shared" ref="D3:D16" si="0">C3/SQRT(ABS(B3))</f>
         <v>20.91297773191561</v>
       </c>
       <c r="E3" s="1">
         <v>23.513801999999998</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="e">
+      <c r="F3" s="1">
+        <v>-22.121979</v>
+      </c>
+      <c r="G3" s="1">
+        <v>99.908730000000006</v>
+      </c>
+      <c r="H3" s="1">
         <f>G3/SQRT(ABS(F3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>21.241806607877496</v>
+      </c>
+      <c r="I3" s="1">
+        <v>15.426926</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -5834,19 +5861,25 @@
         <v>149.95579499999999</v>
       </c>
       <c r="D4" s="1">
-        <f>C4/SQRT(ABS(B4))</f>
+        <f t="shared" si="0"/>
         <v>21.519108131159314</v>
       </c>
       <c r="E4" s="1">
         <v>23.326059000000001</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="e">
-        <f t="shared" ref="H4:H16" si="0">G4/SQRT(ABS(F4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="F4" s="1">
+        <v>-46.781787999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>149.97013899999999</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H16" si="1">G4/SQRT(ABS(F4))</f>
+        <v>21.926352194662307</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15.471367000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5857,19 +5890,25 @@
         <v>199.98225400000001</v>
       </c>
       <c r="D5" s="1">
-        <f>C5/SQRT(ABS(B5))</f>
+        <f t="shared" si="0"/>
         <v>21.734617608024571</v>
       </c>
       <c r="E5" s="1">
         <v>23.240615999999999</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="F5" s="1">
+        <v>-82.166481000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>199.968018</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>22.06039062753586</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15.529634</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -5880,19 +5919,25 @@
         <v>250.004211</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/SQRT(ABS(B6))</f>
+        <f t="shared" si="0"/>
         <v>21.594981897700148</v>
       </c>
       <c r="E6" s="1">
         <v>23.191011</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="F6" s="1">
+        <v>-129.922684</v>
+      </c>
+      <c r="G6" s="1">
+        <v>249.98246800000001</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>21.931435528639089</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15.619399</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -5903,19 +5948,25 @@
         <v>300.00842299999999</v>
       </c>
       <c r="D7" s="1">
-        <f>C7/SQRT(ABS(B7))</f>
+        <f t="shared" si="0"/>
         <v>21.682993973068186</v>
       </c>
       <c r="E7" s="1">
         <v>23.237884999999999</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="F7" s="1">
+        <v>-184.993942</v>
+      </c>
+      <c r="G7" s="1">
+        <v>299.966003</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>22.054300251081592</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15.764421</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
@@ -5926,19 +5977,25 @@
         <v>350.00479100000001</v>
       </c>
       <c r="D8" s="1">
-        <f>C8/SQRT(ABS(B8))</f>
+        <f t="shared" si="0"/>
         <v>21.784822507662238</v>
       </c>
       <c r="E8" s="1">
         <v>23.374722999999999</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="F8" s="1">
+        <v>-248.613235</v>
+      </c>
+      <c r="G8" s="1">
+        <v>349.96343999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>22.195276234075884</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15.98211</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -5949,19 +6006,25 @@
         <v>399.99267600000002</v>
       </c>
       <c r="D9" s="1">
-        <f>C9/SQRT(ABS(B9))</f>
+        <f t="shared" si="0"/>
         <v>21.657885445324588</v>
       </c>
       <c r="E9" s="1">
         <v>23.598274</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="F9" s="1">
+        <v>-331.16668700000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>400.00219700000002</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>21.980575295695438</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16.280453000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
@@ -5972,19 +6035,25 @@
         <v>449.96490499999999</v>
       </c>
       <c r="D10" s="1">
-        <f>C10/SQRT(ABS(B10))</f>
+        <f t="shared" si="0"/>
         <v>21.517143752179049</v>
       </c>
       <c r="E10" s="1">
         <v>23.935179000000002</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="F10" s="1">
+        <v>-426.95138500000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>449.99377399999997</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>21.777964807766235</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16.548183000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
@@ -5995,19 +6064,25 @@
         <v>500.03097500000001</v>
       </c>
       <c r="D11" s="1">
-        <f>C11/SQRT(ABS(B11))</f>
+        <f t="shared" si="0"/>
         <v>21.462277053049963</v>
       </c>
       <c r="E11" s="1">
         <v>24.318747999999999</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="F11" s="1">
+        <v>-529.94988999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>499.98065200000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>21.718798464471075</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16.863551999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
@@ -6018,19 +6093,25 @@
         <v>549.91149900000005</v>
       </c>
       <c r="D12" s="1">
-        <f>C12/SQRT(ABS(B12))</f>
+        <f t="shared" si="0"/>
         <v>21.449802086375541</v>
       </c>
       <c r="E12" s="1">
         <v>24.827095</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="F12" s="1">
+        <v>-640.51074200000005</v>
+      </c>
+      <c r="G12" s="1">
+        <v>549.95281999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>21.730124996235435</v>
+      </c>
+      <c r="I12" s="1">
+        <v>17.290028</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
@@ -6041,19 +6122,25 @@
         <v>599.96533199999999</v>
       </c>
       <c r="D13" s="1">
-        <f>C13/SQRT(ABS(B13))</f>
+        <f t="shared" si="0"/>
         <v>21.548852251270141</v>
       </c>
       <c r="E13" s="1">
         <v>25.430171999999999</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="F13" s="1">
+        <v>-764.52508499999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>599.94000200000005</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>21.697612576686037</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17.955708000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
@@ -6064,19 +6151,25 @@
         <v>649.96405000000004</v>
       </c>
       <c r="D14" s="1">
-        <f>C14/SQRT(ABS(B14))</f>
+        <f t="shared" si="0"/>
         <v>21.514987259274225</v>
       </c>
       <c r="E14" s="1">
         <v>26.128385999999999</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="F14" s="1">
+        <v>-889.86541699999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>650.00201400000003</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>21.789764564047509</v>
+      </c>
+      <c r="I14" s="1">
+        <v>18.770797999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
@@ -6087,19 +6180,25 @@
         <v>700.00945999999999</v>
       </c>
       <c r="D15" s="1">
-        <f>C15/SQRT(ABS(B15))</f>
+        <f t="shared" si="0"/>
         <v>21.542435121205727</v>
       </c>
       <c r="E15" s="1">
         <v>26.845058000000002</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="F15" s="1">
+        <v>-1018.503296</v>
+      </c>
+      <c r="G15" s="1">
+        <v>699.953979</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>21.93250652885536</v>
+      </c>
+      <c r="I15" s="1">
+        <v>19.755859000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -6110,19 +6209,25 @@
         <v>744.53918499999997</v>
       </c>
       <c r="D16" s="1">
-        <f>C16/SQRT(ABS(B16))</f>
+        <f t="shared" si="0"/>
         <v>21.539400965080418</v>
       </c>
       <c r="E16" s="1">
         <v>27.692575000000001</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="1"/>
+      <c r="F16" s="1">
+        <v>-1159.773682</v>
+      </c>
+      <c r="G16" s="1">
+        <v>748.04168700000002</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>21.965403030839269</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20.830347</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -6135,9 +6240,9 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="3" t="e">
+      <c r="F17" s="3">
         <f>(G17/H16)^2</f>
-        <v>#DIV/0!</v>
+        <v>1326.4827949948003</v>
       </c>
       <c r="G17" s="1">
         <v>800</v>
@@ -6159,9 +6264,9 @@
       <c r="F18" s="1">
         <v>1500</v>
       </c>
-      <c r="G18" s="3" t="e">
+      <c r="G18" s="3">
         <f>SQRT(F18)*H16</f>
-        <v>#DIV/0!</v>
+        <v>850.71640131174411</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -6179,11 +6284,1431 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B1AA0D-A2BB-4109-B1E2-B63735DD0F35}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22.402729000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>99.906043999999994</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3/SQRT(ABS(B3))</f>
+        <v>21.107718798623129</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22.329000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-21.894186000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>99.929053999999994</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3/SQRT(ABS(F3))</f>
+        <v>21.356366952666662</v>
+      </c>
+      <c r="I3" s="1">
+        <v>22.873047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1">
+        <v>47.943485000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>149.963379</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D16" si="0">C4/SQRT(ABS(B4))</f>
+        <v>21.658103143942579</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22.177161999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-46.708297999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>149.95341500000001</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H16" si="1">G4/SQRT(ABS(F4))</f>
+        <v>21.941147628446501</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22.74342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1">
+        <v>84.084641000000005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>199.99058500000001</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>21.809776426579457</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22.088357999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-82.366882000000004</v>
+      </c>
+      <c r="G5" s="1">
+        <v>200.00470000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>22.037579318026587</v>
+      </c>
+      <c r="I5" s="1">
+        <v>22.692629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1">
+        <v>133.37617499999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>250.00029000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>21.647182733463335</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22.071048999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-129.737244</v>
+      </c>
+      <c r="G6" s="1">
+        <v>249.97583</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>21.946521006038598</v>
+      </c>
+      <c r="I6" s="1">
+        <v>22.710170999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="1">
+        <v>190.00865200000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>299.99496499999998</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>21.763426712786433</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22.121566999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-185.050354</v>
+      </c>
+      <c r="G7" s="1">
+        <v>299.996735</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>22.053197558058059</v>
+      </c>
+      <c r="I7" s="1">
+        <v>22.798162000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="1">
+        <v>256.268463</v>
+      </c>
+      <c r="C8" s="1">
+        <v>350.00869799999998</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>21.864082376777922</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.253451999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-250.39930699999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>350.00848400000001</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>22.118822842758068</v>
+      </c>
+      <c r="I8" s="1">
+        <v>22.983032000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1">
+        <v>339.89541600000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>400.010895</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>21.696973897439886</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22.478007999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-332.69683800000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>400.00149499999998</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>21.929931637946105</v>
+      </c>
+      <c r="I9" s="1">
+        <v>23.272030000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="1">
+        <v>434.41900600000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>449.99054000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>21.589817690753687</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22.76446</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-428.65390000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>449.99154700000003</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>21.734565673727257</v>
+      </c>
+      <c r="I10" s="1">
+        <v>23.672568999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1">
+        <v>538.37237500000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>500.02621499999998</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>21.550204224038886</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23.164209</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-533.36852999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>499.99078400000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>21.649521675329918</v>
+      </c>
+      <c r="I11" s="1">
+        <v>24.155315000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1">
+        <v>649.49786400000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>549.99633800000004</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>21.58096867201554</v>
+      </c>
+      <c r="E12" s="1">
+        <v>23.636475000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-643.20715299999995</v>
+      </c>
+      <c r="G12" s="1">
+        <v>550.00988800000005</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>21.686779534985394</v>
+      </c>
+      <c r="I12" s="1">
+        <v>24.633614000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="1">
+        <v>762.09167500000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>599.96527100000003</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>21.733141280740533</v>
+      </c>
+      <c r="E13" s="1">
+        <v>24.166464000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-765.25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>599.942993</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>21.687441279345997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>25.140284999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1">
+        <v>892.16674799999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>649.98126200000002</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>21.760948465728628</v>
+      </c>
+      <c r="E14" s="1">
+        <v>24.810594999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-891.361267</v>
+      </c>
+      <c r="G14" s="1">
+        <v>649.94390899999996</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>21.769527296273779</v>
+      </c>
+      <c r="I14" s="1">
+        <v>25.642319000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="1">
+        <v>1029.1601559999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>699.98205600000006</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>21.819531681865417</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25.546385000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1015.1448360000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>699.95666500000004</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>21.968841138473522</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26.396574000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1">
+        <v>1164.105225</v>
+      </c>
+      <c r="C16" s="1">
+        <v>745.34216300000003</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>21.845378312567924</v>
+      </c>
+      <c r="E16" s="1">
+        <v>26.393196</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1144.1354980000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>745.42193599999996</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>22.037556499067367</v>
+      </c>
+      <c r="I16" s="1">
+        <v>27.253416000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3">
+        <f>(C17/D16)^2</f>
+        <v>1341.0989848326465</v>
+      </c>
+      <c r="C17" s="1">
+        <v>800</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3">
+        <f>(G17/H16)^2</f>
+        <v>1317.8109033589019</v>
+      </c>
+      <c r="G17" s="1">
+        <v>800</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SQRT(B18)*D16</f>
+        <v>846.06786396176255</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SQRT(F18)*H16</f>
+        <v>853.51089311992939</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19.170394999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>99.947693000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19/SQRT(ABS(B19))</f>
+        <v>22.827441759182051</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24.09197</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-19.595642000000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>99.923598999999996</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19/SQRT(ABS(F19))</f>
+        <v>22.572949998485615</v>
+      </c>
+      <c r="I19" s="1">
+        <v>25.814292999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="1">
+        <v>40.954467999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>149.96556100000001</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D32" si="2">C20/SQRT(ABS(B20))</f>
+        <v>23.433701421065006</v>
+      </c>
+      <c r="E20" s="1">
+        <v>23.711137999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-42.457745000000003</v>
+      </c>
+      <c r="G20" s="1">
+        <v>149.952866</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:H32" si="3">G20/SQRT(ABS(F20))</f>
+        <v>23.013162734163416</v>
+      </c>
+      <c r="I20" s="1">
+        <v>25.127268000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="1">
+        <v>72.037338000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>200.00704999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>23.564947487466462</v>
+      </c>
+      <c r="E21" s="1">
+        <v>23.462029000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-75.260413999999997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>200.01097100000001</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>23.055286145328989</v>
+      </c>
+      <c r="I21" s="1">
+        <v>24.646397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="1">
+        <v>113.531372</v>
+      </c>
+      <c r="C22" s="1">
+        <v>249.99719200000001</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>23.462656774111949</v>
+      </c>
+      <c r="E22" s="1">
+        <v>23.363745000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-118.824974</v>
+      </c>
+      <c r="G22" s="1">
+        <v>250.00412</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>22.934712576525179</v>
+      </c>
+      <c r="I22" s="1">
+        <v>24.354046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="1">
+        <v>161.61274700000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>300.02233899999999</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>23.600205597544157</v>
+      </c>
+      <c r="E23" s="1">
+        <v>23.402798000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-169.237076</v>
+      </c>
+      <c r="G23" s="1">
+        <v>300.00292999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>23.060978968573018</v>
+      </c>
+      <c r="I23" s="1">
+        <v>24.235472000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="1">
+        <v>218.085419</v>
+      </c>
+      <c r="C24" s="1">
+        <v>350.019836</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>23.701691549809432</v>
+      </c>
+      <c r="E24" s="1">
+        <v>23.556481999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-229.27342200000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>349.96975700000002</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>23.112858443840722</v>
+      </c>
+      <c r="I24" s="1">
+        <v>24.255935999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="1">
+        <v>288.711029</v>
+      </c>
+      <c r="C25" s="1">
+        <v>400.00091600000002</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>23.541238028474304</v>
+      </c>
+      <c r="E25" s="1">
+        <v>23.793583000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-303.23825099999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>399.96224999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>22.968202649952563</v>
+      </c>
+      <c r="I25" s="1">
+        <v>24.407544999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="1">
+        <v>369.03103599999997</v>
+      </c>
+      <c r="C26" s="1">
+        <v>449.98272700000001</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>23.424180022376298</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24.146711</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-389.83355699999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>449.95239299999997</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>22.789088532729089</v>
+      </c>
+      <c r="I26" s="1">
+        <v>24.660178999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="1">
+        <v>452.99014299999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>499.99108899999999</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>23.491886197296587</v>
+      </c>
+      <c r="E27" s="1">
+        <v>24.667871000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-483.75756799999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>500.03637700000002</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>22.734620741661526</v>
+      </c>
+      <c r="I27" s="1">
+        <v>25.060407999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="1">
+        <v>544.03686500000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>549.96478300000001</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>23.57874662912452</v>
+      </c>
+      <c r="E28" s="1">
+        <v>25.338034</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-582.54150400000003</v>
+      </c>
+      <c r="G28" s="1">
+        <v>549.97058100000004</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>22.786416035763558</v>
+      </c>
+      <c r="I28" s="1">
+        <v>25.545148999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="1">
+        <v>643.79547100000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>600.02459699999997</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>23.648036952081711</v>
+      </c>
+      <c r="E29" s="1">
+        <v>26.020184</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-690.85076900000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>600.00292999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>22.827652276309578</v>
+      </c>
+      <c r="I29" s="1">
+        <v>26.142496000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="1">
+        <v>747.43548599999997</v>
+      </c>
+      <c r="C30" s="1">
+        <v>649.97027600000001</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>23.774239844305619</v>
+      </c>
+      <c r="E30" s="1">
+        <v>26.691670999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-808.05200200000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>649.90783699999997</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>22.862942215515464</v>
+      </c>
+      <c r="I30" s="1">
+        <v>26.855575999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="1">
+        <v>866.11688200000003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>699.97381600000006</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>23.784473529227782</v>
+      </c>
+      <c r="E31" s="1">
+        <v>27.39958</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-925.165527</v>
+      </c>
+      <c r="G31" s="1">
+        <v>699.93573000000004</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>23.011686181416938</v>
+      </c>
+      <c r="I31" s="1">
+        <v>27.766628000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="1">
+        <v>1017.613281</v>
+      </c>
+      <c r="C32" s="1">
+        <v>744.01501499999995</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>23.323317102454901</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27.768494</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1026.6218260000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>742.26525900000001</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>23.166151262893916</v>
+      </c>
+      <c r="I32" s="1">
+        <v>28.709883000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="3">
+        <f>(C33/D32)^2</f>
+        <v>1176.520069854294</v>
+      </c>
+      <c r="C33" s="1">
+        <v>800</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3">
+        <f>(G33/H32)^2</f>
+        <v>1192.5379227621738</v>
+      </c>
+      <c r="G33" s="1">
+        <v>800</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SQRT(B34)*D32</f>
+        <v>903.30818716122451</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G34" s="3">
+        <f>SQRT(F34)*H32</f>
+        <v>897.22118036910058</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1">
+        <v>16.499881999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>99.965485000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35/SQRT(ABS(B35))</f>
+        <v>24.609889189399283</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20.026577</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-16.874576999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>99.950134000000006</v>
+      </c>
+      <c r="H35" s="1">
+        <f>G35/SQRT(ABS(F35))</f>
+        <v>24.331390740881268</v>
+      </c>
+      <c r="I35" s="1">
+        <v>21.323072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="1">
+        <v>35.622836999999997</v>
+      </c>
+      <c r="C36" s="1">
+        <v>149.96217300000001</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:D48" si="4">C36/SQRT(ABS(B36))</f>
+        <v>25.125659676496081</v>
+      </c>
+      <c r="E36" s="1">
+        <v>20.110686999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-36.430134000000002</v>
+      </c>
+      <c r="G36" s="1">
+        <v>149.96096800000001</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ref="H36:H48" si="5">G36/SQRT(ABS(F36))</f>
+        <v>24.84550627661417</v>
+      </c>
+      <c r="I36" s="1">
+        <v>21.308527000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="1">
+        <v>62.706764</v>
+      </c>
+      <c r="C37" s="1">
+        <v>199.97699</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="4"/>
+        <v>25.253572973841518</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20.200862999999998</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-64.373733999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>200.006989</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="5"/>
+        <v>24.928194311116755</v>
+      </c>
+      <c r="I37" s="1">
+        <v>21.348199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="1">
+        <v>99.887894000000003</v>
+      </c>
+      <c r="C38" s="1">
+        <v>249.98034699999999</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="4"/>
+        <v>25.012058640751832</v>
+      </c>
+      <c r="E38" s="1">
+        <v>20.356991000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-102.73996</v>
+      </c>
+      <c r="G38" s="1">
+        <v>249.99009699999999</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="5"/>
+        <v>24.663409221415549</v>
+      </c>
+      <c r="I38" s="1">
+        <v>21.465799000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="1">
+        <v>142.77095</v>
+      </c>
+      <c r="C39" s="1">
+        <v>299.996735</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="4"/>
+        <v>25.107102954623397</v>
+      </c>
+      <c r="E39" s="1">
+        <v>20.586259999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-146.524765</v>
+      </c>
+      <c r="G39" s="1">
+        <v>299.969086</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="5"/>
+        <v>24.781122985889045</v>
+      </c>
+      <c r="I39" s="1">
+        <v>21.633317999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="1">
+        <v>193.53985599999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>349.976044</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="4"/>
+        <v>25.156667574516757</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20.857126000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-199.063095</v>
+      </c>
+      <c r="G40" s="1">
+        <v>349.98992900000002</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="5"/>
+        <v>24.806196042694797</v>
+      </c>
+      <c r="I40" s="1">
+        <v>21.851948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="1">
+        <v>258.19812000000002</v>
+      </c>
+      <c r="C41" s="1">
+        <v>399.99173000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="4"/>
+        <v>24.892841527687388</v>
+      </c>
+      <c r="E41" s="1">
+        <v>21.236082</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-265.17291299999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>399.97311400000001</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="5"/>
+        <v>24.562140964612283</v>
+      </c>
+      <c r="I41" s="1">
+        <v>22.174558999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="1">
+        <v>330.70938100000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>449.987976</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="4"/>
+        <v>24.744441280558803</v>
+      </c>
+      <c r="E42" s="1">
+        <v>21.690719999999999</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-339.99108899999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>449.98223899999999</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="5"/>
+        <v>24.404033081727135</v>
+      </c>
+      <c r="I42" s="1">
+        <v>22.529343000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="1">
+        <v>407.31939699999998</v>
+      </c>
+      <c r="C43" s="1">
+        <v>499.97790500000002</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="4"/>
+        <v>24.773266028276243</v>
+      </c>
+      <c r="E43" s="1">
+        <v>22.208317000000001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-420.37927200000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>499.98071299999998</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="5"/>
+        <v>24.385552773596164</v>
+      </c>
+      <c r="I43" s="1">
+        <v>23.004390999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="1">
+        <v>491.09799199999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>549.98962400000005</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="4"/>
+        <v>24.818207829614401</v>
+      </c>
+      <c r="E44" s="1">
+        <v>22.781466999999999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-508.515198</v>
+      </c>
+      <c r="G44" s="1">
+        <v>549.96191399999998</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="5"/>
+        <v>24.388250442553527</v>
+      </c>
+      <c r="I44" s="1">
+        <v>23.549816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="1">
+        <v>585.79870600000004</v>
+      </c>
+      <c r="C45" s="1">
+        <v>599.98254399999996</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>24.789308435317018</v>
+      </c>
+      <c r="E45" s="1">
+        <v>23.424755000000001</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-603.06915300000003</v>
+      </c>
+      <c r="G45" s="1">
+        <v>599.98132299999997</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="5"/>
+        <v>24.431727390489968</v>
+      </c>
+      <c r="I45" s="1">
+        <v>24.152415999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="1">
+        <v>686.897156</v>
+      </c>
+      <c r="C46" s="1">
+        <v>649.98199499999998</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="4"/>
+        <v>24.80021622965749</v>
+      </c>
+      <c r="E46" s="1">
+        <v>24.214490999999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-704.25219700000002</v>
+      </c>
+      <c r="G46" s="1">
+        <v>649.96893299999999</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="5"/>
+        <v>24.492239277132139</v>
+      </c>
+      <c r="I46" s="1">
+        <v>24.877230000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="1">
+        <v>795.043274</v>
+      </c>
+      <c r="C47" s="1">
+        <v>699.93054199999995</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>24.823302562666473</v>
+      </c>
+      <c r="E47" s="1">
+        <v>25.086109</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-815.74462900000003</v>
+      </c>
+      <c r="G47" s="1">
+        <v>699.97088599999995</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="5"/>
+        <v>24.507717478872635</v>
+      </c>
+      <c r="I47" s="1">
+        <v>25.594650000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="1">
+        <v>906.18719499999997</v>
+      </c>
+      <c r="C48" s="1">
+        <v>742.11688200000003</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>24.652635283416476</v>
+      </c>
+      <c r="E48" s="1">
+        <v>26.079708</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-916.45959500000004</v>
+      </c>
+      <c r="G48" s="1">
+        <v>744.51232900000002</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="5"/>
+        <v>24.593210822901693</v>
+      </c>
+      <c r="I48" s="1">
+        <v>26.505002999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="3">
+        <f>(C49/D48)^2</f>
+        <v>1053.060378175627</v>
+      </c>
+      <c r="C49" s="1">
+        <v>800</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3">
+        <f>(G49/H48)^2</f>
+        <v>1058.155536203469</v>
+      </c>
+      <c r="G49" s="1">
+        <v>800</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C50" s="3">
+        <f>SQRT(B50)*D48</f>
+        <v>954.79245892797371</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G50" s="3">
+        <f>SQRT(F50)*H48</f>
+        <v>952.4909594686626</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A35:A50"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -16441,13 +17966,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A67:A82"/>
     <mergeCell ref="J19:J34"/>
     <mergeCell ref="J51:J66"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="A35:A50"/>
     <mergeCell ref="A51:A66"/>
-    <mergeCell ref="A67:A82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19509,8 +21034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BT66"/>
   <sheetViews>
-    <sheetView topLeftCell="BC25" workbookViewId="0">
-      <selection activeCell="BK18" sqref="BK18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/探头测试记录.xlsx
+++ b/探头测试记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695BA6C1-4F8E-4B06-A1B2-CBA5D4884E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68C338-E1D6-4755-950F-D17572A14050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
   <si>
     <t>型号</t>
   </si>
@@ -333,6 +333,34 @@
     <t>28*2mm</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>24*3mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*3mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*3mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度：20℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2024-12-30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2024-1-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2024-1-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -538,10 +566,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,15 +1758,15 @@
       <c r="A1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
       <c r="K1" s="21" t="s">
         <v>73</v>
       </c>
@@ -4452,15 +4480,15 @@
       <c r="A1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5782,15 +5810,15 @@
       <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6285,32 +6313,71 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B1AA0D-A2BB-4109-B1E2-B63735DD0F35}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:AG98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="12.6328125" customWidth="1"/>
+    <col min="11" max="17" width="12.6328125" customWidth="1"/>
+    <col min="19" max="25" width="12.6328125" customWidth="1"/>
+    <col min="27" max="33" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="19"/>
+      <c r="K1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="19"/>
+      <c r="S1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="20"/>
+      <c r="W1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="19"/>
+      <c r="AA1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="19"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6338,8 +6405,71 @@
       <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>87</v>
       </c>
@@ -6369,8 +6499,77 @@
       <c r="I3" s="1">
         <v>22.873047</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1">
+        <v>22.402729000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>99.906043999999994</v>
+      </c>
+      <c r="N3" s="1">
+        <f>M3/SQRT(ABS(L3))</f>
+        <v>21.107718798623129</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-21.894186000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>99.929053999999994</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>P3/SQRT(ABS(O3))</f>
+        <v>21.356366952666662</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="1">
+        <v>22.512191999999999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>99.910004000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <f>U3/SQRT(ABS(T3))</f>
+        <v>21.05717392741974</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-22.134785000000001</v>
+      </c>
+      <c r="X3" s="1">
+        <v>99.961037000000005</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>X3/SQRT(ABS(W3))</f>
+        <v>21.246778918097426</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>22.271329999999999</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>99.870734999999996</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>AC3/SQRT(ABS(AB3))</f>
+        <v>21.162412213769596</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-22.610461999999998</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>99.918128999999993</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>AF3/SQRT(ABS(AE3))</f>
+        <v>21.013073274384897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="1">
         <v>47.943485000000003</v>
@@ -6398,8 +6597,71 @@
       <c r="I4" s="1">
         <v>22.74342</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="16"/>
+      <c r="L4" s="1">
+        <v>47.943485000000003</v>
+      </c>
+      <c r="M4" s="1">
+        <v>149.963379</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N16" si="2">M4/SQRT(ABS(L4))</f>
+        <v>21.658103143942579</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-46.708297999999999</v>
+      </c>
+      <c r="P4" s="1">
+        <v>149.95341500000001</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q16" si="3">P4/SQRT(ABS(O4))</f>
+        <v>21.941147628446501</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="1">
+        <v>48.331595999999998</v>
+      </c>
+      <c r="U4" s="1">
+        <v>149.964676</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V16" si="4">U4/SQRT(ABS(T4))</f>
+        <v>21.571155287556493</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-47.208480999999999</v>
+      </c>
+      <c r="X4" s="1">
+        <v>149.96507299999999</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y16" si="5">X4/SQRT(ABS(W4))</f>
+        <v>21.82629948312016</v>
+      </c>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="1">
+        <v>48.08849</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>149.94911200000001</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" ref="AD4:AD16" si="6">AC4/SQRT(ABS(AB4))</f>
+        <v>21.623367432881437</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>-48.288017000000004</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>149.95983899999999</v>
+      </c>
+      <c r="AG4" s="1">
+        <f t="shared" ref="AG4:AG16" si="7">AF4/SQRT(ABS(AE4))</f>
+        <v>21.580190791730814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="1">
         <v>84.084641000000005</v>
@@ -6427,8 +6689,71 @@
       <c r="I5" s="1">
         <v>22.692629</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="16"/>
+      <c r="L5" s="1">
+        <v>84.084641000000005</v>
+      </c>
+      <c r="M5" s="1">
+        <v>199.99058500000001</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>21.809776426579457</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-82.366882000000004</v>
+      </c>
+      <c r="P5" s="1">
+        <v>200.00470000000001</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="3"/>
+        <v>22.037579318026587</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="1">
+        <v>85.827163999999996</v>
+      </c>
+      <c r="U5" s="1">
+        <v>200.002533</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="4"/>
+        <v>21.58853215398123</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-83.282111999999998</v>
+      </c>
+      <c r="X5" s="1">
+        <v>200.00318899999999</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
+        <v>21.915988069741534</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="1">
+        <v>85.119658999999999</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>199.987167</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="6"/>
+        <v>21.676401704380844</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>-85.803391000000005</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>199.991364</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="7"/>
+        <v>21.590316882216509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="1">
         <v>133.37617499999999</v>
@@ -6456,8 +6781,71 @@
       <c r="I6" s="1">
         <v>22.710170999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="16"/>
+      <c r="L6" s="1">
+        <v>133.37617499999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>250.00029000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>21.647182733463335</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-129.737244</v>
+      </c>
+      <c r="P6" s="1">
+        <v>249.97583</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="3"/>
+        <v>21.946521006038598</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="1">
+        <v>134.833054</v>
+      </c>
+      <c r="U6" s="1">
+        <v>249.99670399999999</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="4"/>
+        <v>21.529606743751849</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-131.03723099999999</v>
+      </c>
+      <c r="X6" s="1">
+        <v>250.00410500000001</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="5"/>
+        <v>21.839856782183695</v>
+      </c>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="1">
+        <v>133.87167400000001</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>249.999146</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="6"/>
+        <v>21.606985380680932</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-134.61007699999999</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>250.01190199999999</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="7"/>
+        <v>21.548740823738513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="1">
         <v>190.00865200000001</v>
@@ -6485,8 +6873,71 @@
       <c r="I7" s="1">
         <v>22.798162000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="16"/>
+      <c r="L7" s="1">
+        <v>190.00865200000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>299.99496499999998</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>21.763426712786433</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-185.050354</v>
+      </c>
+      <c r="P7" s="1">
+        <v>299.996735</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>22.053197558058059</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="1">
+        <v>191.59887699999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>300.03207400000002</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="4"/>
+        <v>21.675603818267728</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-186.477249</v>
+      </c>
+      <c r="X7" s="1">
+        <v>299.99160799999999</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="5"/>
+        <v>21.968286260783</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="1">
+        <v>189.82719399999999</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>300.001282</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="6"/>
+        <v>21.774284675097359</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-190.59213299999999</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>299.97775300000001</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="7"/>
+        <v>21.728841023286709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="1">
         <v>256.268463</v>
@@ -6514,8 +6965,71 @@
       <c r="I8" s="1">
         <v>22.983032000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="16"/>
+      <c r="L8" s="1">
+        <v>256.268463</v>
+      </c>
+      <c r="M8" s="1">
+        <v>350.00869799999998</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>21.864082376777922</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-250.39930699999999</v>
+      </c>
+      <c r="P8" s="1">
+        <v>350.00848400000001</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
+        <v>22.118822842758068</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="1">
+        <v>258.305115</v>
+      </c>
+      <c r="U8" s="1">
+        <v>349.97152699999998</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>21.775403402523583</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-252.459991</v>
+      </c>
+      <c r="X8" s="1">
+        <v>350.014252</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="5"/>
+        <v>22.028729357313665</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="1">
+        <v>256.008759</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>349.99996900000002</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="6"/>
+        <v>21.874623847282393</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-257.25018299999999</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>349.97354100000001</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="7"/>
+        <v>21.820131597602035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="1">
         <v>339.89541600000001</v>
@@ -6543,8 +7057,71 @@
       <c r="I9" s="1">
         <v>23.272030000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="16"/>
+      <c r="L9" s="1">
+        <v>339.89541600000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>400.010895</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>21.696973897439886</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-332.69683800000001</v>
+      </c>
+      <c r="P9" s="1">
+        <v>400.00149499999998</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="3"/>
+        <v>21.929931637946105</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="1">
+        <v>340.99145499999997</v>
+      </c>
+      <c r="U9" s="1">
+        <v>399.98373400000003</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="4"/>
+        <v>21.660604984140836</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-338.72909499999997</v>
+      </c>
+      <c r="X9" s="1">
+        <v>399.980591</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="5"/>
+        <v>21.732649050762756</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="1">
+        <v>339.25900300000001</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>400.026276</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="6"/>
+        <v>21.718150006715195</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>-340.56506300000001</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>400.010651</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="7"/>
+        <v>21.675618993455014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="1">
         <v>434.41900600000002</v>
@@ -6572,8 +7149,71 @@
       <c r="I10" s="1">
         <v>23.672568999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="16"/>
+      <c r="L10" s="1">
+        <v>434.41900600000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>449.99054000000001</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>21.589817690753687</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-428.65390000000002</v>
+      </c>
+      <c r="P10" s="1">
+        <v>449.99154700000003</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="3"/>
+        <v>21.734565673727257</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="1">
+        <v>436.42700200000002</v>
+      </c>
+      <c r="U10" s="1">
+        <v>449.97827100000001</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="4"/>
+        <v>21.539505877371141</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-434.33902</v>
+      </c>
+      <c r="X10" s="1">
+        <v>450.015717</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="5"/>
+        <v>21.593013606003872</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="1">
+        <v>433.46646099999998</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>450.027039</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="6"/>
+        <v>21.615279632042832</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-436.86416600000001</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>450.00894199999999</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="7"/>
+        <v>21.530193456299518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="1">
         <v>538.37237500000003</v>
@@ -6601,8 +7241,71 @@
       <c r="I11" s="1">
         <v>24.155315000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="16"/>
+      <c r="L11" s="1">
+        <v>538.37237500000003</v>
+      </c>
+      <c r="M11" s="1">
+        <v>500.02621499999998</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>21.550204224038886</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-533.36852999999996</v>
+      </c>
+      <c r="P11" s="1">
+        <v>499.99078400000002</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="3"/>
+        <v>21.649521675329918</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="1">
+        <v>539.96160899999995</v>
+      </c>
+      <c r="U11" s="1">
+        <v>499.99688700000002</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="4"/>
+        <v>21.517205073871601</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-537.62475600000005</v>
+      </c>
+      <c r="X11" s="1">
+        <v>499.98785400000003</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="5"/>
+        <v>21.563528398531638</v>
+      </c>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="1">
+        <v>535.93743900000004</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>499.94168100000002</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="6"/>
+        <v>21.595451971218985</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>-539.65936299999998</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>499.98684700000001</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="7"/>
+        <v>21.522797591482828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="1">
         <v>649.49786400000005</v>
@@ -6630,8 +7333,71 @@
       <c r="I12" s="1">
         <v>24.633614000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="16"/>
+      <c r="L12" s="1">
+        <v>649.49786400000005</v>
+      </c>
+      <c r="M12" s="1">
+        <v>549.99633800000004</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>21.58096867201554</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-643.20715299999995</v>
+      </c>
+      <c r="P12" s="1">
+        <v>550.00988800000005</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="3"/>
+        <v>21.686779534985394</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="1">
+        <v>650.746216</v>
+      </c>
+      <c r="U12" s="1">
+        <v>550.01190199999996</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="4"/>
+        <v>21.560869045860766</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-644.74865699999998</v>
+      </c>
+      <c r="X12" s="1">
+        <v>549.97894299999996</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="5"/>
+        <v>21.659620294334115</v>
+      </c>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="1">
+        <v>645.57952899999998</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>549.97363299999995</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="6"/>
+        <v>21.645468666964916</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>-646.99310300000002</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>549.97949200000005</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="7"/>
+        <v>21.622040176967975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="1">
         <v>762.09167500000001</v>
@@ -6659,8 +7425,71 @@
       <c r="I13" s="1">
         <v>25.140284999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="16"/>
+      <c r="L13" s="1">
+        <v>762.09167500000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>599.96527100000003</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>21.733141280740533</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-765.25</v>
+      </c>
+      <c r="P13" s="1">
+        <v>599.942993</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="3"/>
+        <v>21.687441279345997</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="1">
+        <v>763.46813999999995</v>
+      </c>
+      <c r="U13" s="1">
+        <v>599.98345900000004</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="4"/>
+        <v>21.714199232058235</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-767.45880099999999</v>
+      </c>
+      <c r="X13" s="1">
+        <v>599.96954300000004</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="5"/>
+        <v>21.65716817083273</v>
+      </c>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="1">
+        <v>761.10693400000002</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>599.94567900000004</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="6"/>
+        <v>21.746486043256844</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>-768.93139599999995</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>599.97167999999999</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="7"/>
+        <v>21.636497272648469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="1">
         <v>892.16674799999998</v>
@@ -6688,8 +7517,71 @@
       <c r="I14" s="1">
         <v>25.642319000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="16"/>
+      <c r="L14" s="1">
+        <v>892.16674799999998</v>
+      </c>
+      <c r="M14" s="1">
+        <v>649.98126200000002</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>21.760948465728628</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-891.361267</v>
+      </c>
+      <c r="P14" s="1">
+        <v>649.94390899999996</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="3"/>
+        <v>21.769527296273779</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="1">
+        <v>895.23559599999999</v>
+      </c>
+      <c r="U14" s="1">
+        <v>649.96319600000004</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="4"/>
+        <v>21.723014619129291</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-900.64727800000003</v>
+      </c>
+      <c r="X14" s="1">
+        <v>649.930969</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="5"/>
+        <v>21.656579351179097</v>
+      </c>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="1">
+        <v>892.47058100000004</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>650.002747</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="6"/>
+        <v>21.75796317924932</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>-895.23053000000004</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>649.99737500000003</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="7"/>
+        <v>21.724218413844046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="1">
         <v>1029.1601559999999</v>
@@ -6717,8 +7609,71 @@
       <c r="I15" s="1">
         <v>26.396574000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="16"/>
+      <c r="L15" s="1">
+        <v>1029.1601559999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>699.98205600000006</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>21.819531681865417</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-1015.1448360000001</v>
+      </c>
+      <c r="P15" s="1">
+        <v>699.95666500000004</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="3"/>
+        <v>21.968841138473522</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="1">
+        <v>1031.889038</v>
+      </c>
+      <c r="U15" s="1">
+        <v>699.90600600000005</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="4"/>
+        <v>21.788293701860177</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-1028.126953</v>
+      </c>
+      <c r="X15" s="1">
+        <v>699.92474400000003</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="5"/>
+        <v>21.828705156314975</v>
+      </c>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="1">
+        <v>1028.7573239999999</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>700.01086399999997</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="6"/>
+        <v>21.824701382671073</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>-1019.322266</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>700.04132100000004</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="7"/>
+        <v>21.926429663462688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="1">
         <v>1164.105225</v>
@@ -6746,8 +7701,71 @@
       <c r="I16" s="1">
         <v>27.253416000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="16"/>
+      <c r="L16" s="1">
+        <v>1164.105225</v>
+      </c>
+      <c r="M16" s="1">
+        <v>745.34216300000003</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>21.845378312567924</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-1144.1354980000001</v>
+      </c>
+      <c r="P16" s="1">
+        <v>745.42193599999996</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="3"/>
+        <v>22.037556499067367</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="1">
+        <v>1157.9171140000001</v>
+      </c>
+      <c r="U16" s="1">
+        <v>741.86908000000005</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="4"/>
+        <v>21.801608384823911</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-1150.462524</v>
+      </c>
+      <c r="X16" s="1">
+        <v>743.22875999999997</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="5"/>
+        <v>21.912214402819263</v>
+      </c>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="1">
+        <v>1179.0010990000001</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>749.97930899999994</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="6"/>
+        <v>21.841988642880509</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>-1160.6956789999999</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>749.65515100000005</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="7"/>
+        <v>22.004035939241515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3">
         <f>(C17/D16)^2</f>
@@ -6767,8 +7785,59 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="16"/>
+      <c r="L17" s="3">
+        <f>(M17/N16)^2</f>
+        <v>1341.0989848326465</v>
+      </c>
+      <c r="M17" s="1">
+        <v>800</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="3">
+        <f>(P17/Q16)^2</f>
+        <v>1317.8109033589019</v>
+      </c>
+      <c r="P17" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="3">
+        <f>(U17/V16)^2</f>
+        <v>1346.4892963053533</v>
+      </c>
+      <c r="U17" s="1">
+        <v>800</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="3">
+        <f>(X17/Y16)^2</f>
+        <v>1332.9302884398403</v>
+      </c>
+      <c r="X17" s="1">
+        <v>800</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="3">
+        <f>(AC17/AD16)^2</f>
+        <v>1341.5152688432277</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="3">
+        <f>(AF17/AG16)^2</f>
+        <v>1321.8290213177788</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>800</v>
+      </c>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="1">
         <v>1500</v>
@@ -6788,8 +7857,59 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="16"/>
+      <c r="L18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M18" s="3">
+        <f>SQRT(L18)*N16</f>
+        <v>846.06786396176255</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P18" s="3">
+        <f>SQRT(O18)*Q16</f>
+        <v>853.51089311992939</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U18" s="3">
+        <f>SQRT(T18)*V16</f>
+        <v>844.37266194958988</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X18" s="3">
+        <f>SQRT(W18)*Y16</f>
+        <v>848.65641460645304</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>SQRT(AB18)*AD16</f>
+        <v>845.93658261927749</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>SQRT(AE18)*AG16</f>
+        <v>852.2126474203186</v>
+      </c>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>91</v>
       </c>
@@ -6819,8 +7939,73 @@
       <c r="I19" s="1">
         <v>25.814292999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="1">
+        <v>19.170394999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>99.947693000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <f>M19/SQRT(ABS(L19))</f>
+        <v>22.827441759182051</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-19.595642000000002</v>
+      </c>
+      <c r="P19" s="1">
+        <v>99.923598999999996</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>P19/SQRT(ABS(O19))</f>
+        <v>22.572949998485615</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="e">
+        <f>U19/SQRT(ABS(T19))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-19.056813999999999</v>
+      </c>
+      <c r="X19" s="1">
+        <v>99.964766999999995</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>X19/SQRT(ABS(W19))</f>
+        <v>22.89927910543194</v>
+      </c>
+      <c r="AA19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>19.048853000000001</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>99.919937000000004</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>AC19/SQRT(ABS(AB19))</f>
+        <v>22.893792190349266</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>-19.174223000000001</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>99.899483000000004</v>
+      </c>
+      <c r="AG19" s="1">
+        <f>AF19/SQRT(ABS(AE19))</f>
+        <v>22.814153205656353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="1">
         <v>40.954467999999999</v>
@@ -6829,7 +8014,7 @@
         <v>149.96556100000001</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D32" si="2">C20/SQRT(ABS(B20))</f>
+        <f t="shared" ref="D20:D32" si="8">C20/SQRT(ABS(B20))</f>
         <v>23.433701421065006</v>
       </c>
       <c r="E20" s="1">
@@ -6842,14 +8027,73 @@
         <v>149.952866</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H32" si="3">G20/SQRT(ABS(F20))</f>
+        <f t="shared" ref="H20:H32" si="9">G20/SQRT(ABS(F20))</f>
         <v>23.013162734163416</v>
       </c>
       <c r="I20" s="1">
         <v>25.127268000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="16"/>
+      <c r="L20" s="1">
+        <v>40.954467999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <v>149.96556100000001</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N32" si="10">M20/SQRT(ABS(L20))</f>
+        <v>23.433701421065006</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-42.457745000000003</v>
+      </c>
+      <c r="P20" s="1">
+        <v>149.952866</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q32" si="11">P20/SQRT(ABS(O20))</f>
+        <v>23.013162734163416</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="e">
+        <f t="shared" ref="V20:V32" si="12">U20/SQRT(ABS(T20))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="1">
+        <v>-40.465739999999997</v>
+      </c>
+      <c r="X20" s="1">
+        <v>149.97276299999999</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" ref="Y20:Y32" si="13">X20/SQRT(ABS(W20))</f>
+        <v>23.575920008619732</v>
+      </c>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="1">
+        <v>40.541373999999998</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>149.95517000000001</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" ref="AD20:AD32" si="14">AC20/SQRT(ABS(AB20))</f>
+        <v>23.551155058019926</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>-41.161048999999998</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>149.96610999999999</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" ref="AG20:AG32" si="15">AF20/SQRT(ABS(AE20))</f>
+        <v>23.374907944441226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="1">
         <v>72.037338000000005</v>
@@ -6858,7 +8102,7 @@
         <v>200.00704999999999</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.564947487466462</v>
       </c>
       <c r="E21" s="1">
@@ -6871,14 +8115,73 @@
         <v>200.01097100000001</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.055286145328989</v>
       </c>
       <c r="I21" s="1">
         <v>24.646397</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="16"/>
+      <c r="L21" s="1">
+        <v>72.037338000000005</v>
+      </c>
+      <c r="M21" s="1">
+        <v>200.00704999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="10"/>
+        <v>23.564947487466462</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-75.260413999999997</v>
+      </c>
+      <c r="P21" s="1">
+        <v>200.01097100000001</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="11"/>
+        <v>23.055286145328989</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-71.568755999999993</v>
+      </c>
+      <c r="X21" s="1">
+        <v>199.99614</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="13"/>
+        <v>23.640675376467026</v>
+      </c>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="1">
+        <v>71.367919999999998</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>199.983597</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="14"/>
+        <v>23.672430804885572</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>-73.186133999999996</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>200.01738</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="15"/>
+        <v>23.380475047413178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="1">
         <v>113.531372</v>
@@ -6887,7 +8190,7 @@
         <v>249.99719200000001</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.462656774111949</v>
       </c>
       <c r="E22" s="1">
@@ -6900,14 +8203,73 @@
         <v>250.00412</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.934712576525179</v>
       </c>
       <c r="I22" s="1">
         <v>24.354046</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="16"/>
+      <c r="L22" s="1">
+        <v>113.531372</v>
+      </c>
+      <c r="M22" s="1">
+        <v>249.99719200000001</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="10"/>
+        <v>23.462656774111949</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-118.824974</v>
+      </c>
+      <c r="P22" s="1">
+        <v>250.00412</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="11"/>
+        <v>22.934712576525179</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="1">
+        <v>-112.93064099999999</v>
+      </c>
+      <c r="X22" s="1">
+        <v>249.99191300000001</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="13"/>
+        <v>23.524481678599283</v>
+      </c>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="1">
+        <v>111.84899900000001</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>250.01771500000001</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="14"/>
+        <v>23.640395113014172</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>-114.49807</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>250.01495399999999</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="15"/>
+        <v>23.365060105194765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="1">
         <v>161.61274700000001</v>
@@ -6916,7 +8278,7 @@
         <v>300.02233899999999</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.600205597544157</v>
       </c>
       <c r="E23" s="1">
@@ -6929,14 +8291,73 @@
         <v>300.00292999999999</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.060978968573018</v>
       </c>
       <c r="I23" s="1">
         <v>24.235472000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="16"/>
+      <c r="L23" s="1">
+        <v>161.61274700000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>300.02233899999999</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="10"/>
+        <v>23.600205597544157</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-169.237076</v>
+      </c>
+      <c r="P23" s="1">
+        <v>300.00292999999999</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="11"/>
+        <v>23.060978968573018</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-160.305939</v>
+      </c>
+      <c r="X23" s="1">
+        <v>300.00054899999998</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="13"/>
+        <v>23.694483339216372</v>
+      </c>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="1">
+        <v>157.76542699999999</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>299.988159</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="14"/>
+        <v>23.883512290921512</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>-162.23239100000001</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>300.012878</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="15"/>
+        <v>23.554349382797263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="1">
         <v>218.085419</v>
@@ -6945,7 +8366,7 @@
         <v>350.019836</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.701691549809432</v>
       </c>
       <c r="E24" s="1">
@@ -6958,14 +8379,73 @@
         <v>349.96975700000002</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.112858443840722</v>
       </c>
       <c r="I24" s="1">
         <v>24.255935999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="16"/>
+      <c r="L24" s="1">
+        <v>218.085419</v>
+      </c>
+      <c r="M24" s="1">
+        <v>350.019836</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="10"/>
+        <v>23.701691549809432</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-229.27342200000001</v>
+      </c>
+      <c r="P24" s="1">
+        <v>349.96975700000002</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="11"/>
+        <v>23.112858443840722</v>
+      </c>
+      <c r="S24" s="16"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="1">
+        <v>-216.402649</v>
+      </c>
+      <c r="X24" s="1">
+        <v>349.99655200000001</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="13"/>
+        <v>23.792083729664633</v>
+      </c>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="1">
+        <v>212.07382200000001</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>349.995361</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="14"/>
+        <v>24.033595994282059</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>-219.29409799999999</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>349.98773199999999</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="15"/>
+        <v>23.634115290366157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="1">
         <v>288.711029</v>
@@ -6974,7 +8454,7 @@
         <v>400.00091600000002</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.541238028474304</v>
       </c>
       <c r="E25" s="1">
@@ -6987,14 +8467,73 @@
         <v>399.96224999999998</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.968202649952563</v>
       </c>
       <c r="I25" s="1">
         <v>24.407544999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="16"/>
+      <c r="L25" s="1">
+        <v>288.711029</v>
+      </c>
+      <c r="M25" s="1">
+        <v>400.00091600000002</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="10"/>
+        <v>23.541238028474304</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-303.23825099999999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>399.96224999999998</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="11"/>
+        <v>22.968202649952563</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="1">
+        <v>-286.33819599999998</v>
+      </c>
+      <c r="X25" s="1">
+        <v>400.02542099999999</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="13"/>
+        <v>23.640025937723429</v>
+      </c>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="1">
+        <v>280.82815599999998</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>399.99594100000002</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="14"/>
+        <v>23.869056922465674</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>-288.94586199999998</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>400.01190200000002</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" si="15"/>
+        <v>23.532316124913162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="1">
         <v>369.03103599999997</v>
@@ -7003,7 +8542,7 @@
         <v>449.98272700000001</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.424180022376298</v>
       </c>
       <c r="E26" s="1">
@@ -7016,14 +8555,73 @@
         <v>449.95239299999997</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.789088532729089</v>
       </c>
       <c r="I26" s="1">
         <v>24.660178999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="16"/>
+      <c r="L26" s="1">
+        <v>369.03103599999997</v>
+      </c>
+      <c r="M26" s="1">
+        <v>449.98272700000001</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="10"/>
+        <v>23.424180022376298</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-389.83355699999998</v>
+      </c>
+      <c r="P26" s="1">
+        <v>449.95239299999997</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="11"/>
+        <v>22.789088532729089</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="1">
+        <v>-365.05523699999998</v>
+      </c>
+      <c r="X26" s="1">
+        <v>449.99255399999998</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="13"/>
+        <v>23.551904737645685</v>
+      </c>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="1">
+        <v>357.68866000000003</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>449.99618500000003</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="14"/>
+        <v>23.793385772649689</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>-368.71905500000003</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>449.95794699999999</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="15"/>
+        <v>23.432797287755033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="1">
         <v>452.99014299999999</v>
@@ -7032,7 +8630,7 @@
         <v>499.99108899999999</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.491886197296587</v>
       </c>
       <c r="E27" s="1">
@@ -7045,14 +8643,73 @@
         <v>500.03637700000002</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.734620741661526</v>
       </c>
       <c r="I27" s="1">
         <v>25.060407999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="16"/>
+      <c r="L27" s="1">
+        <v>452.99014299999999</v>
+      </c>
+      <c r="M27" s="1">
+        <v>499.99108899999999</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="10"/>
+        <v>23.491886197296587</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-483.75756799999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>500.03637700000002</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="11"/>
+        <v>22.734620741661526</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="1">
+        <v>-451.90185500000001</v>
+      </c>
+      <c r="X27" s="1">
+        <v>499.98431399999998</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="13"/>
+        <v>23.519837530281581</v>
+      </c>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="1">
+        <v>439.720642</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>499.97170999999997</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="14"/>
+        <v>23.842786206747995</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>-455.744934</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>499.97308299999997</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="15"/>
+        <v>23.419935733890615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="1">
         <v>544.03686500000003</v>
@@ -7061,7 +8718,7 @@
         <v>549.96478300000001</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.57874662912452</v>
       </c>
       <c r="E28" s="1">
@@ -7074,14 +8731,73 @@
         <v>549.97058100000004</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.786416035763558</v>
       </c>
       <c r="I28" s="1">
         <v>25.545148999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="16"/>
+      <c r="L28" s="1">
+        <v>544.03686500000003</v>
+      </c>
+      <c r="M28" s="1">
+        <v>549.96478300000001</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="10"/>
+        <v>23.57874662912452</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-582.54150400000003</v>
+      </c>
+      <c r="P28" s="1">
+        <v>549.97058100000004</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="11"/>
+        <v>22.786416035763558</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="1">
+        <v>-544.94097899999997</v>
+      </c>
+      <c r="X28" s="1">
+        <v>549.99688700000002</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="13"/>
+        <v>23.560553966527973</v>
+      </c>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="1">
+        <v>529.618469</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>550.01434300000005</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="14"/>
+        <v>23.899700257132018</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>-546.408142</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>550.01122999999995</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="15"/>
+        <v>23.529515023513387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="1">
         <v>643.79547100000002</v>
@@ -7090,7 +8806,7 @@
         <v>600.02459699999997</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.648036952081711</v>
       </c>
       <c r="E29" s="1">
@@ -7103,14 +8819,73 @@
         <v>600.00292999999999</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.827652276309578</v>
       </c>
       <c r="I29" s="1">
         <v>26.142496000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="16"/>
+      <c r="L29" s="1">
+        <v>643.79547100000002</v>
+      </c>
+      <c r="M29" s="1">
+        <v>600.02459699999997</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="10"/>
+        <v>23.648036952081711</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-690.85076900000001</v>
+      </c>
+      <c r="P29" s="1">
+        <v>600.00292999999999</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="11"/>
+        <v>22.827652276309578</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="1">
+        <v>-646.41705300000001</v>
+      </c>
+      <c r="X29" s="1">
+        <v>600.00238000000002</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="13"/>
+        <v>23.599161404597542</v>
+      </c>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="1">
+        <v>628.86932400000001</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>600.00647000000004</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="14"/>
+        <v>23.926310159001517</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>-644.72399900000005</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>599.92321800000002</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="15"/>
+        <v>23.627009280713846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="1">
         <v>747.43548599999997</v>
@@ -7119,7 +8894,7 @@
         <v>649.97027600000001</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.774239844305619</v>
       </c>
       <c r="E30" s="1">
@@ -7132,14 +8907,73 @@
         <v>649.90783699999997</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.862942215515464</v>
       </c>
       <c r="I30" s="1">
         <v>26.855575999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="16"/>
+      <c r="L30" s="1">
+        <v>747.43548599999997</v>
+      </c>
+      <c r="M30" s="1">
+        <v>649.97027600000001</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="10"/>
+        <v>23.774239844305619</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-808.05200200000002</v>
+      </c>
+      <c r="P30" s="1">
+        <v>649.90783699999997</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="11"/>
+        <v>22.862942215515464</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="1">
+        <v>-756.88055399999996</v>
+      </c>
+      <c r="X30" s="1">
+        <v>649.964966</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="13"/>
+        <v>23.62524247458175</v>
+      </c>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="1">
+        <v>735.43890399999998</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>649.982483</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="14"/>
+        <v>23.967809966053785</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>-756.79278599999998</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>649.96472200000005</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="15"/>
+        <v>23.626603517782073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="1">
         <v>866.11688200000003</v>
@@ -7148,7 +8982,7 @@
         <v>699.97381600000006</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.784473529227782</v>
       </c>
       <c r="E31" s="1">
@@ -7161,14 +8995,73 @@
         <v>699.93573000000004</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.011686181416938</v>
       </c>
       <c r="I31" s="1">
         <v>27.766628000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="16"/>
+      <c r="L31" s="1">
+        <v>866.11688200000003</v>
+      </c>
+      <c r="M31" s="1">
+        <v>699.97381600000006</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="10"/>
+        <v>23.784473529227782</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-925.165527</v>
+      </c>
+      <c r="P31" s="1">
+        <v>699.93573000000004</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="11"/>
+        <v>23.011686181416938</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="1">
+        <v>-873.27368200000001</v>
+      </c>
+      <c r="X31" s="1">
+        <v>699.94256600000006</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="13"/>
+        <v>23.685754269827516</v>
+      </c>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="1">
+        <v>858.42614700000001</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>699.949341</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="14"/>
+        <v>23.889944469702769</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>-874.95977800000003</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>700.00152600000001</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="15"/>
+        <v>23.664914641263096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="1">
         <v>1017.613281</v>
@@ -7177,7 +9070,7 @@
         <v>744.01501499999995</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.323317102454901</v>
       </c>
       <c r="E32" s="1">
@@ -7190,14 +9083,73 @@
         <v>742.26525900000001</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.166151262893916</v>
       </c>
       <c r="I32" s="1">
         <v>28.709883000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="16"/>
+      <c r="L32" s="1">
+        <v>1017.613281</v>
+      </c>
+      <c r="M32" s="1">
+        <v>744.01501499999995</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="10"/>
+        <v>23.323317102454901</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-1026.6218260000001</v>
+      </c>
+      <c r="P32" s="1">
+        <v>742.26525900000001</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="11"/>
+        <v>23.166151262893916</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="1">
+        <v>-984.28716999999995</v>
+      </c>
+      <c r="X32" s="1">
+        <v>745.17114300000003</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="13"/>
+        <v>23.751722809376457</v>
+      </c>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="1">
+        <v>995.603882</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>749.93322799999999</v>
+      </c>
+      <c r="AD32" s="1">
+        <f t="shared" si="14"/>
+        <v>23.767270339597122</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>-993.99066200000004</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>749.99060099999997</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="15"/>
+        <v>23.788369108993535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="3">
         <f>(C33/D32)^2</f>
@@ -7217,8 +9169,59 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="16"/>
+      <c r="L33" s="3">
+        <f>(M33/N32)^2</f>
+        <v>1176.520069854294</v>
+      </c>
+      <c r="M33" s="1">
+        <v>800</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="3">
+        <f>(P33/Q32)^2</f>
+        <v>1192.5379227621738</v>
+      </c>
+      <c r="P33" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="3" t="e">
+        <f>(U33/V32)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="1">
+        <v>800</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="3">
+        <f>(X33/Y32)^2</f>
+        <v>1134.461446637572</v>
+      </c>
+      <c r="X33" s="1">
+        <v>800</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="3">
+        <f>(AC33/AD32)^2</f>
+        <v>1132.9776999272676</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="3">
+        <f>(AF33/AG32)^2</f>
+        <v>1130.9688329674323</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>800</v>
+      </c>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="1">
         <v>1500</v>
@@ -7238,8 +9241,59 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="16"/>
+      <c r="L34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M34" s="3">
+        <f>SQRT(L34)*N32</f>
+        <v>903.30818716122451</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P34" s="3">
+        <f>SQRT(O34)*Q32</f>
+        <v>897.22118036910058</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U34" s="3" t="e">
+        <f>SQRT(T34)*V32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X34" s="3">
+        <f>SQRT(W34)*Y32</f>
+        <v>919.90026884449856</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AC34" s="3">
+        <f>SQRT(AB34)*AD32</f>
+        <v>920.50242210069155</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AF34" s="3">
+        <f>SQRT(AE34)*AG32</f>
+        <v>921.31957392566926</v>
+      </c>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>92</v>
       </c>
@@ -7269,8 +9323,77 @@
       <c r="I35" s="1">
         <v>21.323072</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="1">
+        <v>16.499881999999999</v>
+      </c>
+      <c r="M35" s="1">
+        <v>99.965485000000001</v>
+      </c>
+      <c r="N35" s="1">
+        <f>M35/SQRT(ABS(L35))</f>
+        <v>24.609889189399283</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-16.874576999999999</v>
+      </c>
+      <c r="P35" s="1">
+        <v>99.950134000000006</v>
+      </c>
+      <c r="Q35" s="1">
+        <f>P35/SQRT(ABS(O35))</f>
+        <v>24.331390740881268</v>
+      </c>
+      <c r="S35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="T35" s="1">
+        <v>16.787441000000001</v>
+      </c>
+      <c r="U35" s="1">
+        <v>99.947356999999997</v>
+      </c>
+      <c r="V35" s="1">
+        <f>U35/SQRT(ABS(T35))</f>
+        <v>24.393777851986311</v>
+      </c>
+      <c r="W35" s="1">
+        <v>-16.455774000000002</v>
+      </c>
+      <c r="X35" s="1">
+        <v>99.914337000000003</v>
+      </c>
+      <c r="Y35" s="1">
+        <f>X35/SQRT(ABS(W35))</f>
+        <v>24.630240572400091</v>
+      </c>
+      <c r="AA35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>17.95072</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>99.961753999999999</v>
+      </c>
+      <c r="AD35" s="1">
+        <f>AC35/SQRT(ABS(AB35))</f>
+        <v>23.593530428313855</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>-17.240732000000001</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>99.873444000000006</v>
+      </c>
+      <c r="AG35" s="1">
+        <f>AF35/SQRT(ABS(AE35))</f>
+        <v>24.053161966908863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="1">
         <v>35.622836999999997</v>
@@ -7279,7 +9402,7 @@
         <v>149.96217300000001</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D48" si="4">C36/SQRT(ABS(B36))</f>
+        <f t="shared" ref="D36:D48" si="16">C36/SQRT(ABS(B36))</f>
         <v>25.125659676496081</v>
       </c>
       <c r="E36" s="1">
@@ -7292,14 +9415,77 @@
         <v>149.96096800000001</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" ref="H36:H48" si="5">G36/SQRT(ABS(F36))</f>
+        <f t="shared" ref="H36:H48" si="17">G36/SQRT(ABS(F36))</f>
         <v>24.84550627661417</v>
       </c>
       <c r="I36" s="1">
         <v>21.308527000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="16"/>
+      <c r="L36" s="1">
+        <v>35.622836999999997</v>
+      </c>
+      <c r="M36" s="1">
+        <v>149.96217300000001</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ref="N36:N48" si="18">M36/SQRT(ABS(L36))</f>
+        <v>25.125659676496081</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-36.430134000000002</v>
+      </c>
+      <c r="P36" s="1">
+        <v>149.96096800000001</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" ref="Q36:Q48" si="19">P36/SQRT(ABS(O36))</f>
+        <v>24.84550627661417</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="1">
+        <v>36.555664</v>
+      </c>
+      <c r="U36" s="1">
+        <v>149.96220400000001</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" ref="V36:V48" si="20">U36/SQRT(ABS(T36))</f>
+        <v>24.803015016246551</v>
+      </c>
+      <c r="W36" s="1">
+        <v>-35.372990000000001</v>
+      </c>
+      <c r="X36" s="1">
+        <v>149.94935599999999</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" ref="Y36:Y48" si="21">X36/SQRT(ABS(W36))</f>
+        <v>25.212082480927055</v>
+      </c>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="1">
+        <v>39.270786000000001</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>149.94950900000001</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" ref="AD36:AD48" si="22">AC36/SQRT(ABS(AB36))</f>
+        <v>23.928212184944769</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>-37.523895000000003</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>149.953217</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" ref="AG36:AG48" si="23">AF36/SQRT(ABS(AE36))</f>
+        <v>24.479459882014126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="1">
         <v>62.706764</v>
@@ -7308,7 +9494,7 @@
         <v>199.97699</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25.253572973841518</v>
       </c>
       <c r="E37" s="1">
@@ -7321,14 +9507,77 @@
         <v>200.006989</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.928194311116755</v>
       </c>
       <c r="I37" s="1">
         <v>21.348199999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="16"/>
+      <c r="L37" s="1">
+        <v>62.706764</v>
+      </c>
+      <c r="M37" s="1">
+        <v>199.97699</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="18"/>
+        <v>25.253572973841518</v>
+      </c>
+      <c r="O37" s="1">
+        <v>-64.373733999999999</v>
+      </c>
+      <c r="P37" s="1">
+        <v>200.006989</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="19"/>
+        <v>24.928194311116755</v>
+      </c>
+      <c r="S37" s="16"/>
+      <c r="T37" s="1">
+        <v>64.982596999999998</v>
+      </c>
+      <c r="U37" s="1">
+        <v>199.98362700000001</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="20"/>
+        <v>24.808237379110562</v>
+      </c>
+      <c r="W37" s="1">
+        <v>-62.870055999999998</v>
+      </c>
+      <c r="X37" s="1">
+        <v>199.98817399999999</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="21"/>
+        <v>25.222166685317667</v>
+      </c>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="1">
+        <v>70.091621000000004</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>199.99797100000001</v>
+      </c>
+      <c r="AD37" s="1">
+        <f t="shared" si="22"/>
+        <v>23.888701167845184</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>-67.832770999999994</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>200.00706500000001</v>
+      </c>
+      <c r="AG37" s="1">
+        <f t="shared" si="23"/>
+        <v>24.284298222197197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="1">
         <v>99.887894000000003</v>
@@ -7337,7 +9586,7 @@
         <v>249.98034699999999</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25.012058640751832</v>
       </c>
       <c r="E38" s="1">
@@ -7350,14 +9599,77 @@
         <v>249.99009699999999</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.663409221415549</v>
       </c>
       <c r="I38" s="1">
         <v>21.465799000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="16"/>
+      <c r="L38" s="1">
+        <v>99.887894000000003</v>
+      </c>
+      <c r="M38" s="1">
+        <v>249.98034699999999</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="18"/>
+        <v>25.012058640751832</v>
+      </c>
+      <c r="O38" s="1">
+        <v>-102.73996</v>
+      </c>
+      <c r="P38" s="1">
+        <v>249.99009699999999</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="19"/>
+        <v>24.663409221415549</v>
+      </c>
+      <c r="S38" s="16"/>
+      <c r="T38" s="1">
+        <v>102.70611599999999</v>
+      </c>
+      <c r="U38" s="1">
+        <v>249.992569</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="20"/>
+        <v>24.667716385341439</v>
+      </c>
+      <c r="W38" s="1">
+        <v>-99.235909000000007</v>
+      </c>
+      <c r="X38" s="1">
+        <v>249.998535</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="21"/>
+        <v>25.095915166083739</v>
+      </c>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="1">
+        <v>111.549561</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>250.00592</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="22"/>
+        <v>23.670986618070337</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>-107.098473</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>250.002701</v>
+      </c>
+      <c r="AG38" s="1">
+        <f t="shared" si="23"/>
+        <v>24.157559695383739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="1">
         <v>142.77095</v>
@@ -7366,7 +9678,7 @@
         <v>299.996735</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25.107102954623397</v>
       </c>
       <c r="E39" s="1">
@@ -7379,14 +9691,77 @@
         <v>299.969086</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.781122985889045</v>
       </c>
       <c r="I39" s="1">
         <v>21.633317999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="16"/>
+      <c r="L39" s="1">
+        <v>142.77095</v>
+      </c>
+      <c r="M39" s="1">
+        <v>299.996735</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="18"/>
+        <v>25.107102954623397</v>
+      </c>
+      <c r="O39" s="1">
+        <v>-146.524765</v>
+      </c>
+      <c r="P39" s="1">
+        <v>299.969086</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="19"/>
+        <v>24.781122985889045</v>
+      </c>
+      <c r="S39" s="16"/>
+      <c r="T39" s="1">
+        <v>146.58757</v>
+      </c>
+      <c r="U39" s="1">
+        <v>300.03155500000003</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="20"/>
+        <v>24.78097331800258</v>
+      </c>
+      <c r="W39" s="1">
+        <v>-141.482193</v>
+      </c>
+      <c r="X39" s="1">
+        <v>299.96853599999997</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="21"/>
+        <v>25.218822916718224</v>
+      </c>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="1">
+        <v>159.88928200000001</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>300.00036599999999</v>
+      </c>
+      <c r="AD39" s="1">
+        <f t="shared" si="22"/>
+        <v>23.72532161969114</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>-153.650589</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>299.99359099999998</v>
+      </c>
+      <c r="AG39" s="1">
+        <f t="shared" si="23"/>
+        <v>24.201643646093899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="1">
         <v>193.53985599999999</v>
@@ -7395,7 +9770,7 @@
         <v>349.976044</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25.156667574516757</v>
       </c>
       <c r="E40" s="1">
@@ -7408,14 +9783,77 @@
         <v>349.98992900000002</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.806196042694797</v>
       </c>
       <c r="I40" s="1">
         <v>21.851948</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="16"/>
+      <c r="L40" s="1">
+        <v>193.53985599999999</v>
+      </c>
+      <c r="M40" s="1">
+        <v>349.976044</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="18"/>
+        <v>25.156667574516757</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-199.063095</v>
+      </c>
+      <c r="P40" s="1">
+        <v>349.98992900000002</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="19"/>
+        <v>24.806196042694797</v>
+      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="1">
+        <v>200.090485</v>
+      </c>
+      <c r="U40" s="1">
+        <v>350.00473</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="20"/>
+        <v>24.743475152608266</v>
+      </c>
+      <c r="W40" s="1">
+        <v>-192.699051</v>
+      </c>
+      <c r="X40" s="1">
+        <v>349.97573899999998</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="21"/>
+        <v>25.211468989435808</v>
+      </c>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="1">
+        <v>217.58194</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>350.00784299999998</v>
+      </c>
+      <c r="AD40" s="1">
+        <f t="shared" si="22"/>
+        <v>23.728285207559477</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>-210.10438500000001</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>349.98644999999999</v>
+      </c>
+      <c r="AG40" s="1">
+        <f t="shared" si="23"/>
+        <v>24.145359299573439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="1">
         <v>258.19812000000002</v>
@@ -7424,7 +9862,7 @@
         <v>399.99173000000002</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.892841527687388</v>
       </c>
       <c r="E41" s="1">
@@ -7437,14 +9875,77 @@
         <v>399.97311400000001</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.562140964612283</v>
       </c>
       <c r="I41" s="1">
         <v>22.174558999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="16"/>
+      <c r="L41" s="1">
+        <v>258.19812000000002</v>
+      </c>
+      <c r="M41" s="1">
+        <v>399.99173000000002</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="18"/>
+        <v>24.892841527687388</v>
+      </c>
+      <c r="O41" s="1">
+        <v>-265.17291299999999</v>
+      </c>
+      <c r="P41" s="1">
+        <v>399.97311400000001</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="19"/>
+        <v>24.562140964612283</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="1">
+        <v>265.73211700000002</v>
+      </c>
+      <c r="U41" s="1">
+        <v>400.01486199999999</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="20"/>
+        <v>24.538844216290464</v>
+      </c>
+      <c r="W41" s="1">
+        <v>-256.50573700000001</v>
+      </c>
+      <c r="X41" s="1">
+        <v>399.96810900000003</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="21"/>
+        <v>24.973351116989711</v>
+      </c>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="1">
+        <v>290.13180499999999</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>400.00625600000001</v>
+      </c>
+      <c r="AD41" s="1">
+        <f t="shared" si="22"/>
+        <v>23.483840049151375</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>-281.02682499999997</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>399.96423299999998</v>
+      </c>
+      <c r="AG41" s="1">
+        <f t="shared" si="23"/>
+        <v>23.858726989262362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="1">
         <v>330.70938100000001</v>
@@ -7453,7 +9954,7 @@
         <v>449.987976</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.744441280558803</v>
       </c>
       <c r="E42" s="1">
@@ -7466,14 +9967,77 @@
         <v>449.98223899999999</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.404033081727135</v>
       </c>
       <c r="I42" s="1">
         <v>22.529343000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="16"/>
+      <c r="L42" s="1">
+        <v>330.70938100000001</v>
+      </c>
+      <c r="M42" s="1">
+        <v>449.987976</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="18"/>
+        <v>24.744441280558803</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-339.99108899999999</v>
+      </c>
+      <c r="P42" s="1">
+        <v>449.98223899999999</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="19"/>
+        <v>24.404033081727135</v>
+      </c>
+      <c r="S42" s="16"/>
+      <c r="T42" s="1">
+        <v>340.52771000000001</v>
+      </c>
+      <c r="U42" s="1">
+        <v>449.959473</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="20"/>
+        <v>24.3835632353573</v>
+      </c>
+      <c r="W42" s="1">
+        <v>-329.66012599999999</v>
+      </c>
+      <c r="X42" s="1">
+        <v>449.97586100000001</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="21"/>
+        <v>24.783121526150179</v>
+      </c>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="1">
+        <v>368.34750400000001</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>449.96655299999998</v>
+      </c>
+      <c r="AD42" s="1">
+        <f t="shared" si="22"/>
+        <v>23.445061011538385</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>-360.70367399999998</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>449.95315599999998</v>
+      </c>
+      <c r="AG42" s="1">
+        <f t="shared" si="23"/>
+        <v>23.6914705927644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="1">
         <v>407.31939699999998</v>
@@ -7482,7 +10046,7 @@
         <v>499.97790500000002</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.773266028276243</v>
       </c>
       <c r="E43" s="1">
@@ -7495,14 +10059,77 @@
         <v>499.98071299999998</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.385552773596164</v>
       </c>
       <c r="I43" s="1">
         <v>23.004390999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="16"/>
+      <c r="L43" s="1">
+        <v>407.31939699999998</v>
+      </c>
+      <c r="M43" s="1">
+        <v>499.97790500000002</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="18"/>
+        <v>24.773266028276243</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-420.37927200000001</v>
+      </c>
+      <c r="P43" s="1">
+        <v>499.98071299999998</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="19"/>
+        <v>24.385552773596164</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="1">
+        <v>420.28842200000003</v>
+      </c>
+      <c r="U43" s="1">
+        <v>499.99658199999999</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="20"/>
+        <v>24.388962297094551</v>
+      </c>
+      <c r="W43" s="1">
+        <v>-408.03121900000002</v>
+      </c>
+      <c r="X43" s="1">
+        <v>499.989868</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="21"/>
+        <v>24.752239998270728</v>
+      </c>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="1">
+        <v>454.74157700000001</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>499.96725500000002</v>
+      </c>
+      <c r="AD43" s="1">
+        <f t="shared" si="22"/>
+        <v>23.445485463179743</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>-447.963348</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>499.96386699999999</v>
+      </c>
+      <c r="AG43" s="1">
+        <f t="shared" si="23"/>
+        <v>23.622038748075774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="1">
         <v>491.09799199999998</v>
@@ -7511,7 +10138,7 @@
         <v>549.98962400000005</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.818207829614401</v>
       </c>
       <c r="E44" s="1">
@@ -7524,14 +10151,77 @@
         <v>549.96191399999998</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.388250442553527</v>
       </c>
       <c r="I44" s="1">
         <v>23.549816</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="16"/>
+      <c r="L44" s="1">
+        <v>491.09799199999998</v>
+      </c>
+      <c r="M44" s="1">
+        <v>549.98962400000005</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="18"/>
+        <v>24.818207829614401</v>
+      </c>
+      <c r="O44" s="1">
+        <v>-508.515198</v>
+      </c>
+      <c r="P44" s="1">
+        <v>549.96191399999998</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="19"/>
+        <v>24.388250442553527</v>
+      </c>
+      <c r="S44" s="16"/>
+      <c r="T44" s="1">
+        <v>505.55593900000002</v>
+      </c>
+      <c r="U44" s="1">
+        <v>550.00439500000005</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="20"/>
+        <v>24.46141364074219</v>
+      </c>
+      <c r="W44" s="1">
+        <v>-495.313873</v>
+      </c>
+      <c r="X44" s="1">
+        <v>549.97436500000003</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="21"/>
+        <v>24.71167598303769</v>
+      </c>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="1">
+        <v>550.95178199999998</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>549.99157700000001</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" si="22"/>
+        <v>23.431454189958831</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>-540.80139199999996</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>550.007385</v>
+      </c>
+      <c r="AG44" s="1">
+        <f t="shared" si="23"/>
+        <v>23.651006119034903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="1">
         <v>585.79870600000004</v>
@@ -7540,7 +10230,7 @@
         <v>599.98254399999996</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.789308435317018</v>
       </c>
       <c r="E45" s="1">
@@ -7553,14 +10243,77 @@
         <v>599.98132299999997</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.431727390489968</v>
       </c>
       <c r="I45" s="1">
         <v>24.152415999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="16"/>
+      <c r="L45" s="1">
+        <v>585.79870600000004</v>
+      </c>
+      <c r="M45" s="1">
+        <v>599.98254399999996</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="18"/>
+        <v>24.789308435317018</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-603.06915300000003</v>
+      </c>
+      <c r="P45" s="1">
+        <v>599.98132299999997</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="19"/>
+        <v>24.431727390489968</v>
+      </c>
+      <c r="S45" s="16"/>
+      <c r="T45" s="1">
+        <v>601.089294</v>
+      </c>
+      <c r="U45" s="1">
+        <v>599.96038799999997</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="20"/>
+        <v>24.4710768500025</v>
+      </c>
+      <c r="W45" s="1">
+        <v>-587.26110800000004</v>
+      </c>
+      <c r="X45" s="1">
+        <v>599.95202600000005</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="21"/>
+        <v>24.757164602958042</v>
+      </c>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="1">
+        <v>654.51586899999995</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>599.953979</v>
+      </c>
+      <c r="AD45" s="1">
+        <f t="shared" si="22"/>
+        <v>23.450809981509611</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>-641.21246299999996</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>599.98602300000005</v>
+      </c>
+      <c r="AG45" s="1">
+        <f t="shared" si="23"/>
+        <v>23.694096663244828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="1">
         <v>686.897156</v>
@@ -7569,7 +10322,7 @@
         <v>649.98199499999998</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.80021622965749</v>
       </c>
       <c r="E46" s="1">
@@ -7582,14 +10335,77 @@
         <v>649.96893299999999</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.492239277132139</v>
       </c>
       <c r="I46" s="1">
         <v>24.877230000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="16"/>
+      <c r="L46" s="1">
+        <v>686.897156</v>
+      </c>
+      <c r="M46" s="1">
+        <v>649.98199499999998</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="18"/>
+        <v>24.80021622965749</v>
+      </c>
+      <c r="O46" s="1">
+        <v>-704.25219700000002</v>
+      </c>
+      <c r="P46" s="1">
+        <v>649.96893299999999</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="19"/>
+        <v>24.492239277132139</v>
+      </c>
+      <c r="S46" s="16"/>
+      <c r="T46" s="1">
+        <v>701.53283699999997</v>
+      </c>
+      <c r="U46" s="1">
+        <v>649.97106900000006</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="20"/>
+        <v>24.539743786935919</v>
+      </c>
+      <c r="W46" s="1">
+        <v>-688.21624799999995</v>
+      </c>
+      <c r="X46" s="1">
+        <v>649.95513900000003</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="21"/>
+        <v>24.775414046195674</v>
+      </c>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="1">
+        <v>748.39386000000002</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>649.96624799999995</v>
+      </c>
+      <c r="AD46" s="1">
+        <f t="shared" si="22"/>
+        <v>23.758865387168559</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>-753.41302499999995</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>649.94091800000001</v>
+      </c>
+      <c r="AG46" s="1">
+        <f t="shared" si="23"/>
+        <v>23.678670681356692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="1">
         <v>795.043274</v>
@@ -7598,7 +10414,7 @@
         <v>699.93054199999995</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.823302562666473</v>
       </c>
       <c r="E47" s="1">
@@ -7611,14 +10427,77 @@
         <v>699.97088599999995</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.507717478872635</v>
       </c>
       <c r="I47" s="1">
         <v>25.594650000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="16"/>
+      <c r="L47" s="1">
+        <v>795.043274</v>
+      </c>
+      <c r="M47" s="1">
+        <v>699.93054199999995</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="18"/>
+        <v>24.823302562666473</v>
+      </c>
+      <c r="O47" s="1">
+        <v>-815.74462900000003</v>
+      </c>
+      <c r="P47" s="1">
+        <v>699.97088599999995</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="19"/>
+        <v>24.507717478872635</v>
+      </c>
+      <c r="S47" s="16"/>
+      <c r="T47" s="1">
+        <v>809.02227800000003</v>
+      </c>
+      <c r="U47" s="1">
+        <v>699.97912599999995</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="20"/>
+        <v>24.609616653156333</v>
+      </c>
+      <c r="W47" s="1">
+        <v>-795.71643100000006</v>
+      </c>
+      <c r="X47" s="1">
+        <v>699.96276899999998</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="21"/>
+        <v>24.813942841241541</v>
+      </c>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="1">
+        <v>869.44647199999997</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>700.02520800000002</v>
+      </c>
+      <c r="AD47" s="1">
+        <f t="shared" si="22"/>
+        <v>23.740630818187697</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>-868.66332999999997</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>699.94006300000001</v>
+      </c>
+      <c r="AG47" s="1">
+        <f t="shared" si="23"/>
+        <v>23.748441164675029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="1">
         <v>906.18719499999997</v>
@@ -7627,7 +10506,7 @@
         <v>742.11688200000003</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24.652635283416476</v>
       </c>
       <c r="E48" s="1">
@@ -7640,14 +10519,77 @@
         <v>744.51232900000002</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>24.593210822901693</v>
       </c>
       <c r="I48" s="1">
         <v>26.505002999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="16"/>
+      <c r="L48" s="1">
+        <v>906.18719499999997</v>
+      </c>
+      <c r="M48" s="1">
+        <v>742.11688200000003</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="18"/>
+        <v>24.652635283416476</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-916.45959500000004</v>
+      </c>
+      <c r="P48" s="1">
+        <v>744.51232900000002</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="19"/>
+        <v>24.593210822901693</v>
+      </c>
+      <c r="S48" s="16"/>
+      <c r="T48" s="1">
+        <v>923.609375</v>
+      </c>
+      <c r="U48" s="1">
+        <v>744.55004899999994</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="20"/>
+        <v>24.499077429045176</v>
+      </c>
+      <c r="W48" s="1">
+        <v>-912.13171399999999</v>
+      </c>
+      <c r="X48" s="1">
+        <v>749.97497599999997</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="21"/>
+        <v>24.832359947256798</v>
+      </c>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="1">
+        <v>981.51660200000003</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>742.92175299999997</v>
+      </c>
+      <c r="AD48" s="1">
+        <f t="shared" si="22"/>
+        <v>23.713423084258217</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>-990.55737299999998</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>749.97198500000002</v>
+      </c>
+      <c r="AG48" s="1">
+        <f t="shared" si="23"/>
+        <v>23.828967409436608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="3">
         <f>(C49/D48)^2</f>
@@ -7667,8 +10609,59 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="16"/>
+      <c r="L49" s="3">
+        <f>(M49/N48)^2</f>
+        <v>1053.060378175627</v>
+      </c>
+      <c r="M49" s="1">
+        <v>800</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="3">
+        <f>(P49/Q48)^2</f>
+        <v>1058.155536203469</v>
+      </c>
+      <c r="P49" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="3">
+        <f>(U49/V48)^2</f>
+        <v>1066.302711117095</v>
+      </c>
+      <c r="U49" s="1">
+        <v>800</v>
+      </c>
+      <c r="V49" s="1"/>
+      <c r="W49" s="3">
+        <f>(X49/Y48)^2</f>
+        <v>1037.8724513607428</v>
+      </c>
+      <c r="X49" s="1">
+        <v>800</v>
+      </c>
+      <c r="Y49" s="1"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="3">
+        <f>(AC49/AD48)^2</f>
+        <v>1138.1289601182846</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="3">
+        <f>(AF49/AG48)^2</f>
+        <v>1127.1183682969315</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>800</v>
+      </c>
+      <c r="AG49" s="1"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="1">
         <v>1500</v>
@@ -7688,15 +10681,3159 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M50" s="3">
+        <f>SQRT(L50)*N48</f>
+        <v>954.79245892797371</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P50" s="3">
+        <f>SQRT(O50)*Q48</f>
+        <v>952.4909594686626</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U50" s="3">
+        <f>SQRT(T50)*V48</f>
+        <v>948.84518880137989</v>
+      </c>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X50" s="3">
+        <f>SQRT(W50)*Y48</f>
+        <v>961.75316522753667</v>
+      </c>
+      <c r="Y50" s="1"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AC50" s="3">
+        <f>SQRT(AB50)*AD48</f>
+        <v>918.41692686902593</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AF50" s="3">
+        <f>SQRT(AE50)*AG48</f>
+        <v>922.89193934067271</v>
+      </c>
+      <c r="AG50" s="1"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K51" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="1">
+        <v>23.535399999999999</v>
+      </c>
+      <c r="M51" s="1">
+        <v>99.886748999999995</v>
+      </c>
+      <c r="N51" s="1">
+        <f>M51/SQRT(ABS(L51))</f>
+        <v>20.589560981370749</v>
+      </c>
+      <c r="O51" s="1">
+        <v>-23.678979999999999</v>
+      </c>
+      <c r="P51" s="1">
+        <v>99.934630999999996</v>
+      </c>
+      <c r="Q51" s="1">
+        <f>P51/SQRT(ABS(O51))</f>
+        <v>20.53688247734954</v>
+      </c>
+      <c r="S51" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="T51" s="1">
+        <v>23.311508</v>
+      </c>
+      <c r="U51" s="1">
+        <v>99.956283999999997</v>
+      </c>
+      <c r="V51" s="1">
+        <f>U51/SQRT(ABS(T51))</f>
+        <v>20.702601284541057</v>
+      </c>
+      <c r="W51" s="1">
+        <v>-22.656368000000001</v>
+      </c>
+      <c r="X51" s="1">
+        <v>99.934096999999994</v>
+      </c>
+      <c r="Y51" s="1">
+        <f>X51/SQRT(ABS(W51))</f>
+        <v>20.995129002863386</v>
+      </c>
+      <c r="AA51" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>23.570678999999998</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>99.918526</v>
+      </c>
+      <c r="AD51" s="1">
+        <f>AC51/SQRT(ABS(AB51))</f>
+        <v>20.580691938631073</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>-23.993917</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>99.942870999999997</v>
+      </c>
+      <c r="AG51" s="1">
+        <f>AF51/SQRT(ABS(AE51))</f>
+        <v>20.403338976908412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K52" s="16"/>
+      <c r="L52" s="1">
+        <v>50.495460999999999</v>
+      </c>
+      <c r="M52" s="1">
+        <v>149.957458</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" ref="N52:N64" si="24">M52/SQRT(ABS(L52))</f>
+        <v>21.10288825020476</v>
+      </c>
+      <c r="O52" s="1">
+        <v>-50.227066000000001</v>
+      </c>
+      <c r="P52" s="1">
+        <v>149.956726</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" ref="Q52:Q64" si="25">P52/SQRT(ABS(O52))</f>
+        <v>21.15909288551784</v>
+      </c>
+      <c r="S52" s="16"/>
+      <c r="T52" s="1">
+        <v>49.467823000000003</v>
+      </c>
+      <c r="U52" s="1">
+        <v>149.96586600000001</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" ref="V52:V64" si="26">U52/SQRT(ABS(T52))</f>
+        <v>21.322151296563874</v>
+      </c>
+      <c r="W52" s="1">
+        <v>-47.861457999999999</v>
+      </c>
+      <c r="X52" s="1">
+        <v>149.94776899999999</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" ref="Y52:Y64" si="27">X52/SQRT(ABS(W52))</f>
+        <v>21.674398119408853</v>
+      </c>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="1">
+        <v>49.980797000000003</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>149.96017499999999</v>
+      </c>
+      <c r="AD52" s="1">
+        <f t="shared" ref="AD52:AD64" si="28">AC52/SQRT(ABS(AB52))</f>
+        <v>21.211644993442714</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>-51.184834000000002</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>149.96038799999999</v>
+      </c>
+      <c r="AG52" s="1">
+        <f t="shared" ref="AG52:AG64" si="29">AF52/SQRT(ABS(AE52))</f>
+        <v>20.960705968871089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K53" s="16"/>
+      <c r="L53" s="1">
+        <v>88.117133999999993</v>
+      </c>
+      <c r="M53" s="1">
+        <v>200.00351000000001</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="24"/>
+        <v>21.30627046898632</v>
+      </c>
+      <c r="O53" s="1">
+        <v>-87.736823999999999</v>
+      </c>
+      <c r="P53" s="1">
+        <v>199.998886</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="25"/>
+        <v>21.351904680988003</v>
+      </c>
+      <c r="S53" s="16"/>
+      <c r="T53" s="1">
+        <v>86.143958999999995</v>
+      </c>
+      <c r="U53" s="1">
+        <v>199.988159</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="26"/>
+        <v>21.547250911014839</v>
+      </c>
+      <c r="W53" s="1">
+        <v>-83.960052000000005</v>
+      </c>
+      <c r="X53" s="1">
+        <v>199.990173</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="27"/>
+        <v>21.825907316144157</v>
+      </c>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="1">
+        <v>87.468979000000004</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>200.01298499999999</v>
+      </c>
+      <c r="AD53" s="1">
+        <f t="shared" si="28"/>
+        <v>21.386078801373401</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>-89.560851999999997</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>199.97280900000001</v>
+      </c>
+      <c r="AG53" s="1">
+        <f t="shared" si="29"/>
+        <v>21.130600486090145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K54" s="16"/>
+      <c r="L54" s="1">
+        <v>139.14154099999999</v>
+      </c>
+      <c r="M54" s="1">
+        <v>250.00762900000001</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="24"/>
+        <v>21.194582055399522</v>
+      </c>
+      <c r="O54" s="1">
+        <v>-137.48670999999999</v>
+      </c>
+      <c r="P54" s="1">
+        <v>249.99818400000001</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="25"/>
+        <v>21.320947174688605</v>
+      </c>
+      <c r="S54" s="16"/>
+      <c r="T54" s="1">
+        <v>135.08021500000001</v>
+      </c>
+      <c r="U54" s="1">
+        <v>249.995148</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="26"/>
+        <v>21.509767108436652</v>
+      </c>
+      <c r="W54" s="1">
+        <v>-131.449173</v>
+      </c>
+      <c r="X54" s="1">
+        <v>250.027466</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="27"/>
+        <v>21.80764608036408</v>
+      </c>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="1">
+        <v>136.38739000000001</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>249.99946600000001</v>
+      </c>
+      <c r="AD54" s="1">
+        <f t="shared" si="28"/>
+        <v>21.406810854731628</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>-140.153885</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>249.98242200000001</v>
+      </c>
+      <c r="AG54" s="1">
+        <f t="shared" si="29"/>
+        <v>21.115768942933798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K55" s="16"/>
+      <c r="L55" s="1">
+        <v>197.023743</v>
+      </c>
+      <c r="M55" s="1">
+        <v>299.99719199999998</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="24"/>
+        <v>21.372627028578801</v>
+      </c>
+      <c r="O55" s="1">
+        <v>-195.54989599999999</v>
+      </c>
+      <c r="P55" s="1">
+        <v>300.019226</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="25"/>
+        <v>21.454593563373606</v>
+      </c>
+      <c r="S55" s="16"/>
+      <c r="T55" s="1">
+        <v>191.603714</v>
+      </c>
+      <c r="U55" s="1">
+        <v>299.98642000000001</v>
+      </c>
+      <c r="V55" s="1">
+        <f t="shared" si="26"/>
+        <v>21.672032019123336</v>
+      </c>
+      <c r="W55" s="1">
+        <v>-186.721619</v>
+      </c>
+      <c r="X55" s="1">
+        <v>299.99594100000002</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="27"/>
+        <v>21.954223266306485</v>
+      </c>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="1">
+        <v>193.33067299999999</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>300.00509599999998</v>
+      </c>
+      <c r="AD55" s="1">
+        <f t="shared" si="28"/>
+        <v>21.576363518201688</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>-198.09811400000001</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>300.01483200000001</v>
+      </c>
+      <c r="AG55" s="1">
+        <f t="shared" si="29"/>
+        <v>21.315845084232212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K56" s="16"/>
+      <c r="L56" s="1">
+        <v>265.96307400000001</v>
+      </c>
+      <c r="M56" s="1">
+        <v>349.99499500000002</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="24"/>
+        <v>21.461059664745125</v>
+      </c>
+      <c r="O56" s="1">
+        <v>-263.46228000000002</v>
+      </c>
+      <c r="P56" s="1">
+        <v>349.98019399999998</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="25"/>
+        <v>21.561761833484052</v>
+      </c>
+      <c r="S56" s="16"/>
+      <c r="T56" s="1">
+        <v>257.53646900000001</v>
+      </c>
+      <c r="U56" s="1">
+        <v>350.00067100000001</v>
+      </c>
+      <c r="V56" s="1">
+        <f t="shared" si="26"/>
+        <v>21.809690797043345</v>
+      </c>
+      <c r="W56" s="1">
+        <v>-251.638306</v>
+      </c>
+      <c r="X56" s="1">
+        <v>349.98980699999998</v>
+      </c>
+      <c r="Y56" s="1">
+        <f t="shared" si="27"/>
+        <v>22.063124710488879</v>
+      </c>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="1">
+        <v>259.61084</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>350.01870700000001</v>
+      </c>
+      <c r="AD56" s="1">
+        <f t="shared" si="28"/>
+        <v>21.72350233494274</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>-266.09841899999998</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>349.98330700000002</v>
+      </c>
+      <c r="AG56" s="1">
+        <f t="shared" si="29"/>
+        <v>21.454884622219371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K57" s="16"/>
+      <c r="L57" s="1">
+        <v>351.69036899999998</v>
+      </c>
+      <c r="M57" s="1">
+        <v>399.99224900000002</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="24"/>
+        <v>21.329041439641628</v>
+      </c>
+      <c r="O57" s="1">
+        <v>-348.111786</v>
+      </c>
+      <c r="P57" s="1">
+        <v>399.97863799999999</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="25"/>
+        <v>21.437662702458116</v>
+      </c>
+      <c r="S57" s="16"/>
+      <c r="T57" s="1">
+        <v>339.69143700000001</v>
+      </c>
+      <c r="U57" s="1">
+        <v>400.00408900000002</v>
+      </c>
+      <c r="V57" s="1">
+        <f t="shared" si="26"/>
+        <v>21.703117979141766</v>
+      </c>
+      <c r="W57" s="1">
+        <v>-332.95706200000001</v>
+      </c>
+      <c r="X57" s="1">
+        <v>399.98922700000003</v>
+      </c>
+      <c r="Y57" s="1">
+        <f t="shared" si="27"/>
+        <v>21.920687921850593</v>
+      </c>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="1">
+        <v>343.222351</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>399.969604</v>
+      </c>
+      <c r="AD57" s="1">
+        <f t="shared" si="28"/>
+        <v>21.589332108601756</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>-352.38998400000003</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>399.99273699999998</v>
+      </c>
+      <c r="AG57" s="1">
+        <f t="shared" si="29"/>
+        <v>21.307884184581184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K58" s="16"/>
+      <c r="L58" s="1">
+        <v>451.67358400000001</v>
+      </c>
+      <c r="M58" s="1">
+        <v>449.98263500000002</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="24"/>
+        <v>21.173049295635671</v>
+      </c>
+      <c r="O58" s="1">
+        <v>-448.245453</v>
+      </c>
+      <c r="P58" s="1">
+        <v>450.02267499999999</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="25"/>
+        <v>21.255750831312675</v>
+      </c>
+      <c r="S58" s="16"/>
+      <c r="T58" s="1">
+        <v>435.58349600000003</v>
+      </c>
+      <c r="U58" s="1">
+        <v>449.995453</v>
+      </c>
+      <c r="V58" s="1">
+        <f t="shared" si="26"/>
+        <v>21.561174643281728</v>
+      </c>
+      <c r="W58" s="1">
+        <v>-427.893036</v>
+      </c>
+      <c r="X58" s="1">
+        <v>449.97317500000003</v>
+      </c>
+      <c r="Y58" s="1">
+        <f t="shared" si="27"/>
+        <v>21.752992747311566</v>
+      </c>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="1">
+        <v>439.44317599999999</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>449.96636999999998</v>
+      </c>
+      <c r="AD58" s="1">
+        <f t="shared" si="28"/>
+        <v>21.464891317990784</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>-453.619507</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>449.988495</v>
+      </c>
+      <c r="AG58" s="1">
+        <f t="shared" si="29"/>
+        <v>21.127861878402893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K59" s="16"/>
+      <c r="L59" s="1">
+        <v>560.60449200000005</v>
+      </c>
+      <c r="M59" s="1">
+        <v>500.03817700000002</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="24"/>
+        <v>21.119074222943624</v>
+      </c>
+      <c r="O59" s="1">
+        <v>-555.59320100000002</v>
+      </c>
+      <c r="P59" s="1">
+        <v>500.02072099999998</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="25"/>
+        <v>21.213363837489521</v>
+      </c>
+      <c r="S59" s="16"/>
+      <c r="T59" s="1">
+        <v>539.13678000000004</v>
+      </c>
+      <c r="U59" s="1">
+        <v>499.98007200000001</v>
+      </c>
+      <c r="V59" s="1">
+        <f t="shared" si="26"/>
+        <v>21.5329342604687</v>
+      </c>
+      <c r="W59" s="1">
+        <v>-529.87982199999999</v>
+      </c>
+      <c r="X59" s="1">
+        <v>499.99044800000001</v>
+      </c>
+      <c r="Y59" s="1">
+        <f t="shared" si="27"/>
+        <v>21.720659955469714</v>
+      </c>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="1">
+        <v>543.94140600000003</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>499.96646099999998</v>
+      </c>
+      <c r="AD59" s="1">
+        <f t="shared" si="28"/>
+        <v>21.437039688184473</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>-557.78942900000004</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>499.97058099999998</v>
+      </c>
+      <c r="AG59" s="1">
+        <f t="shared" si="29"/>
+        <v>21.169437132240208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K60" s="16"/>
+      <c r="L60" s="1">
+        <v>670.02691700000003</v>
+      </c>
+      <c r="M60" s="1">
+        <v>550.00158699999997</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="24"/>
+        <v>21.247988255817745</v>
+      </c>
+      <c r="O60" s="1">
+        <v>-665.50604199999998</v>
+      </c>
+      <c r="P60" s="1">
+        <v>550.024902</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="25"/>
+        <v>21.320940145882449</v>
+      </c>
+      <c r="S60" s="16"/>
+      <c r="T60" s="1">
+        <v>646.02221699999996</v>
+      </c>
+      <c r="U60" s="1">
+        <v>549.94958499999996</v>
+      </c>
+      <c r="V60" s="1">
+        <f t="shared" si="26"/>
+        <v>21.637104956309823</v>
+      </c>
+      <c r="W60" s="1">
+        <v>-634.74029499999995</v>
+      </c>
+      <c r="X60" s="1">
+        <v>549.92932099999996</v>
+      </c>
+      <c r="Y60" s="1">
+        <f t="shared" si="27"/>
+        <v>21.827743476234389</v>
+      </c>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="1">
+        <v>652.69799799999998</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>550.006348</v>
+      </c>
+      <c r="AD60" s="1">
+        <f t="shared" si="28"/>
+        <v>21.528390464730244</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>-666.93450900000005</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>550.01769999999999</v>
+      </c>
+      <c r="AG60" s="1">
+        <f t="shared" si="29"/>
+        <v>21.297816009276115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K61" s="16"/>
+      <c r="L61" s="1">
+        <v>787.73211700000002</v>
+      </c>
+      <c r="M61" s="1">
+        <v>599.979919</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="24"/>
+        <v>21.377033543063153</v>
+      </c>
+      <c r="O61" s="1">
+        <v>-784.94189500000005</v>
+      </c>
+      <c r="P61" s="1">
+        <v>599.94897500000002</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="25"/>
+        <v>21.413889680278487</v>
+      </c>
+      <c r="S61" s="16"/>
+      <c r="T61" s="1">
+        <v>759.52441399999998</v>
+      </c>
+      <c r="U61" s="1">
+        <v>599.99926800000003</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="26"/>
+        <v>21.771073870774924</v>
+      </c>
+      <c r="W61" s="1">
+        <v>-752.37536599999999</v>
+      </c>
+      <c r="X61" s="1">
+        <v>599.959656</v>
+      </c>
+      <c r="Y61" s="1">
+        <f t="shared" si="27"/>
+        <v>21.872819226949758</v>
+      </c>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="1">
+        <v>768.91113299999995</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>599.97882100000004</v>
+      </c>
+      <c r="AD61" s="1">
+        <f t="shared" si="28"/>
+        <v>21.637039888383963</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>-791.52716099999998</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>599.94457999999997</v>
+      </c>
+      <c r="AG61" s="1">
+        <f t="shared" si="29"/>
+        <v>21.324468877880353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K62" s="16"/>
+      <c r="L62" s="1">
+        <v>921.15393100000006</v>
+      </c>
+      <c r="M62" s="1">
+        <v>649.962219</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="24"/>
+        <v>21.415193743550571</v>
+      </c>
+      <c r="O62" s="1">
+        <v>-911.77624500000002</v>
+      </c>
+      <c r="P62" s="1">
+        <v>650.00939900000003</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="25"/>
+        <v>21.526602922735666</v>
+      </c>
+      <c r="S62" s="16"/>
+      <c r="T62" s="1">
+        <v>891.07061799999997</v>
+      </c>
+      <c r="U62" s="1">
+        <v>649.96582000000001</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="26"/>
+        <v>21.773811410984056</v>
+      </c>
+      <c r="W62" s="1">
+        <v>-877.98290999999995</v>
+      </c>
+      <c r="X62" s="1">
+        <v>650.01709000000005</v>
+      </c>
+      <c r="Y62" s="1">
+        <f t="shared" si="27"/>
+        <v>21.937227740840662</v>
+      </c>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="1">
+        <v>903.35400400000003</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>649.98547399999995</v>
+      </c>
+      <c r="AD62" s="1">
+        <f t="shared" si="28"/>
+        <v>21.62592358734533</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>-917.99163799999997</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>649.93652299999997</v>
+      </c>
+      <c r="AG62" s="1">
+        <f t="shared" si="29"/>
+        <v>21.451199410294237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K63" s="16"/>
+      <c r="L63" s="1">
+        <v>1063.9288329999999</v>
+      </c>
+      <c r="M63" s="1">
+        <v>699.97833300000002</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="24"/>
+        <v>21.459930336906918</v>
+      </c>
+      <c r="O63" s="1">
+        <v>-1035.3161620000001</v>
+      </c>
+      <c r="P63" s="1">
+        <v>699.99645999999996</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="25"/>
+        <v>21.755012986063594</v>
+      </c>
+      <c r="S63" s="16"/>
+      <c r="T63" s="1">
+        <v>1028.853394</v>
+      </c>
+      <c r="U63" s="1">
+        <v>699.89691200000004</v>
+      </c>
+      <c r="V63" s="1">
+        <f t="shared" si="26"/>
+        <v>21.820129818554214</v>
+      </c>
+      <c r="W63" s="1">
+        <v>-1002.288452</v>
+      </c>
+      <c r="X63" s="1">
+        <v>699.94189500000005</v>
+      </c>
+      <c r="Y63" s="1">
+        <f t="shared" si="27"/>
+        <v>22.108823145957501</v>
+      </c>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="1">
+        <v>1042.9117429999999</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>699.95080600000006</v>
+      </c>
+      <c r="AD63" s="1">
+        <f t="shared" si="28"/>
+        <v>21.674233070969098</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>-1043.988159</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>700.00201400000003</v>
+      </c>
+      <c r="AG63" s="1">
+        <f t="shared" si="29"/>
+        <v>21.66464131242245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K64" s="16"/>
+      <c r="L64" s="1">
+        <v>1190.0498050000001</v>
+      </c>
+      <c r="M64" s="1">
+        <v>742.17779499999995</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="24"/>
+        <v>21.514209230513956</v>
+      </c>
+      <c r="O64" s="1">
+        <v>-1155.0848390000001</v>
+      </c>
+      <c r="P64" s="1">
+        <v>742.13940400000001</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="25"/>
+        <v>21.8362747126526</v>
+      </c>
+      <c r="S64" s="16"/>
+      <c r="T64" s="1">
+        <v>1168.750732</v>
+      </c>
+      <c r="U64" s="1">
+        <v>746.72216800000001</v>
+      </c>
+      <c r="V64" s="1">
+        <f t="shared" si="26"/>
+        <v>21.842286357691194</v>
+      </c>
+      <c r="W64" s="1">
+        <v>-1132.0477289999999</v>
+      </c>
+      <c r="X64" s="1">
+        <v>744.02264400000001</v>
+      </c>
+      <c r="Y64" s="1">
+        <f t="shared" si="27"/>
+        <v>22.113311537383456</v>
+      </c>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="1">
+        <v>1199.0570070000001</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>749.94445800000005</v>
+      </c>
+      <c r="AD64" s="1">
+        <f t="shared" si="28"/>
+        <v>21.657542954012321</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>-1190.8336179999999</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>749.93859899999995</v>
+      </c>
+      <c r="AG64" s="1">
+        <f t="shared" si="29"/>
+        <v>21.732023392285821</v>
+      </c>
+    </row>
+    <row r="65" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K65" s="16"/>
+      <c r="L65" s="3">
+        <f>(M65/N64)^2</f>
+        <v>1382.7039329272532</v>
+      </c>
+      <c r="M65" s="1">
+        <v>800</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="3">
+        <f>(P65/Q64)^2</f>
+        <v>1342.2174332595607</v>
+      </c>
+      <c r="P65" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="3">
+        <f>(U65/V64)^2</f>
+        <v>1341.4786988398973</v>
+      </c>
+      <c r="U65" s="1">
+        <v>800</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="3">
+        <f>(X65/Y64)^2</f>
+        <v>1308.7973445542707</v>
+      </c>
+      <c r="X65" s="1">
+        <v>800</v>
+      </c>
+      <c r="Y65" s="1"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="3">
+        <f>(AC65/AD64)^2</f>
+        <v>1364.4625026404149</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="3">
+        <f>(AF65/AG64)^2</f>
+        <v>1355.1259014031486</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>800</v>
+      </c>
+      <c r="AG65" s="1"/>
+    </row>
+    <row r="66" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K66" s="16"/>
+      <c r="L66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
+        <f>SQRT(L66)*N64</f>
+        <v>833.2417405660243</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
+        <f>SQRT(O66)*Q64</f>
+        <v>845.71528305313666</v>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U66" s="3">
+        <f>SQRT(T66)*V64</f>
+        <v>845.9481130643145</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X66" s="3">
+        <f>SQRT(W66)*Y64</f>
+        <v>856.44487313782452</v>
+      </c>
+      <c r="Y66" s="1"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AC66" s="3">
+        <f>SQRT(AB66)*AD64</f>
+        <v>838.79303180661498</v>
+      </c>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AF66" s="3">
+        <f>SQRT(AE66)*AG64</f>
+        <v>841.67764677713001</v>
+      </c>
+      <c r="AG66" s="1"/>
+    </row>
+    <row r="67" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K67" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L67" s="1">
+        <v>19.653276000000002</v>
+      </c>
+      <c r="M67" s="1">
+        <v>99.897011000000006</v>
+      </c>
+      <c r="N67" s="1">
+        <f>M67/SQRT(ABS(L67))</f>
+        <v>22.533830196959471</v>
+      </c>
+      <c r="O67" s="1">
+        <v>-19.944181</v>
+      </c>
+      <c r="P67" s="1">
+        <v>99.909087999999997</v>
+      </c>
+      <c r="Q67" s="1">
+        <f>P67/SQRT(ABS(O67))</f>
+        <v>22.371592044324402</v>
+      </c>
+      <c r="S67" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="T67" s="1">
+        <v>19.792819999999999</v>
+      </c>
+      <c r="U67" s="1">
+        <v>99.929198999999997</v>
+      </c>
+      <c r="V67" s="1">
+        <f>U67/SQRT(ABS(T67))</f>
+        <v>22.461490339706316</v>
+      </c>
+      <c r="W67" s="1">
+        <v>-19.057307999999999</v>
+      </c>
+      <c r="X67" s="1">
+        <v>99.934387000000001</v>
+      </c>
+      <c r="Y67" s="1">
+        <f>X67/SQRT(ABS(W67))</f>
+        <v>22.892023145330679</v>
+      </c>
+      <c r="AA67" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>19.201777</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>99.973243999999994</v>
+      </c>
+      <c r="AD67" s="1">
+        <f>AC67/SQRT(ABS(AB67))</f>
+        <v>22.814611290261286</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>-19.926382</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>99.953011000000004</v>
+      </c>
+      <c r="AG67" s="1">
+        <f>AF67/SQRT(ABS(AE67))</f>
+        <v>22.39142099865111</v>
+      </c>
+    </row>
+    <row r="68" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K68" s="16"/>
+      <c r="L68" s="1">
+        <v>42.090969000000001</v>
+      </c>
+      <c r="M68" s="1">
+        <v>149.96069299999999</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" ref="N68:N80" si="30">M68/SQRT(ABS(L68))</f>
+        <v>23.114418742324442</v>
+      </c>
+      <c r="O68" s="1">
+        <v>-42.890095000000002</v>
+      </c>
+      <c r="P68" s="1">
+        <v>149.96821600000001</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" ref="Q68:Q80" si="31">P68/SQRT(ABS(O68))</f>
+        <v>22.899221665190101</v>
+      </c>
+      <c r="S68" s="16"/>
+      <c r="T68" s="1">
+        <v>42.420479</v>
+      </c>
+      <c r="U68" s="1">
+        <v>149.95233200000001</v>
+      </c>
+      <c r="V68" s="1">
+        <f t="shared" ref="V68:V80" si="32">U68/SQRT(ABS(T68))</f>
+        <v>23.023186952223703</v>
+      </c>
+      <c r="W68" s="1">
+        <v>-40.861930999999998</v>
+      </c>
+      <c r="X68" s="1">
+        <v>149.96263099999999</v>
+      </c>
+      <c r="Y68" s="1">
+        <f t="shared" ref="Y68:Y80" si="33">X68/SQRT(ABS(W68))</f>
+        <v>23.459762341179506</v>
+      </c>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="1">
+        <v>40.927810999999998</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>149.957932</v>
+      </c>
+      <c r="AD68" s="1">
+        <f t="shared" ref="AD68:AD80" si="34">AC68/SQRT(ABS(AB68))</f>
+        <v>23.440139068985452</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>-43.145358999999999</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>149.945358</v>
+      </c>
+      <c r="AG68" s="1">
+        <f t="shared" ref="AG68:AG80" si="35">AF68/SQRT(ABS(AE68))</f>
+        <v>22.827901079721958</v>
+      </c>
+    </row>
+    <row r="69" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K69" s="16"/>
+      <c r="L69" s="1">
+        <v>73.858626999999998</v>
+      </c>
+      <c r="M69" s="1">
+        <v>199.99636799999999</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="30"/>
+        <v>23.271345488296454</v>
+      </c>
+      <c r="O69" s="1">
+        <v>-75.724991000000003</v>
+      </c>
+      <c r="P69" s="1">
+        <v>199.99494899999999</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="31"/>
+        <v>22.982613429081585</v>
+      </c>
+      <c r="S69" s="16"/>
+      <c r="T69" s="1">
+        <v>74.845222000000007</v>
+      </c>
+      <c r="U69" s="1">
+        <v>199.993179</v>
+      </c>
+      <c r="V69" s="1">
+        <f t="shared" si="32"/>
+        <v>23.117088910941053</v>
+      </c>
+      <c r="W69" s="1">
+        <v>-71.910659999999993</v>
+      </c>
+      <c r="X69" s="1">
+        <v>199.997208</v>
+      </c>
+      <c r="Y69" s="1">
+        <f t="shared" si="33"/>
+        <v>23.584533778888449</v>
+      </c>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="1">
+        <v>71.643814000000006</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>199.98916600000001</v>
+      </c>
+      <c r="AD69" s="1">
+        <f t="shared" si="34"/>
+        <v>23.627464561112625</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>-76.646309000000002</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>200.00276199999999</v>
+      </c>
+      <c r="AG69" s="1">
+        <f t="shared" si="35"/>
+        <v>22.844958338331274</v>
+      </c>
+    </row>
+    <row r="70" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K70" s="16"/>
+      <c r="L70" s="1">
+        <v>117.377197</v>
+      </c>
+      <c r="M70" s="1">
+        <v>250.00408899999999</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="30"/>
+        <v>23.075719161361025</v>
+      </c>
+      <c r="O70" s="1">
+        <v>-119.409149</v>
+      </c>
+      <c r="P70" s="1">
+        <v>250.00851399999999</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="31"/>
+        <v>22.878945150244341</v>
+      </c>
+      <c r="S70" s="16"/>
+      <c r="T70" s="1">
+        <v>118.504684</v>
+      </c>
+      <c r="U70" s="1">
+        <v>250.00881999999999</v>
+      </c>
+      <c r="V70" s="1">
+        <f t="shared" si="32"/>
+        <v>22.96611694950483</v>
+      </c>
+      <c r="W70" s="1">
+        <v>-113.228882</v>
+      </c>
+      <c r="X70" s="1">
+        <v>250.01664700000001</v>
+      </c>
+      <c r="Y70" s="1">
+        <f t="shared" si="33"/>
+        <v>23.495804337043744</v>
+      </c>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="1">
+        <v>112.006355</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>250.00288399999999</v>
+      </c>
+      <c r="AD70" s="1">
+        <f t="shared" si="34"/>
+        <v>23.622381905338646</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>-120.447762</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>250.01139800000001</v>
+      </c>
+      <c r="AG70" s="1">
+        <f t="shared" si="35"/>
+        <v>22.780352557892222</v>
+      </c>
+    </row>
+    <row r="71" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K71" s="16"/>
+      <c r="L71" s="1">
+        <v>167.691971</v>
+      </c>
+      <c r="M71" s="1">
+        <v>299.99340799999999</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="30"/>
+        <v>23.16624137500655</v>
+      </c>
+      <c r="O71" s="1">
+        <v>-170.08206200000001</v>
+      </c>
+      <c r="P71" s="1">
+        <v>300.002655</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="31"/>
+        <v>23.003601842213257</v>
+      </c>
+      <c r="S71" s="16"/>
+      <c r="T71" s="1">
+        <v>168.593414</v>
+      </c>
+      <c r="U71" s="1">
+        <v>299.99874899999998</v>
+      </c>
+      <c r="V71" s="1">
+        <f t="shared" si="32"/>
+        <v>23.104636546380732</v>
+      </c>
+      <c r="W71" s="1">
+        <v>-160.82569899999999</v>
+      </c>
+      <c r="X71" s="1">
+        <v>300.00570699999997</v>
+      </c>
+      <c r="Y71" s="1">
+        <f t="shared" si="33"/>
+        <v>23.656570907664189</v>
+      </c>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="1">
+        <v>158.46313499999999</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>299.988831</v>
+      </c>
+      <c r="AD71" s="1">
+        <f t="shared" si="34"/>
+        <v>23.830928508653717</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>-170.76686100000001</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>299.97979700000002</v>
+      </c>
+      <c r="AG71" s="1">
+        <f t="shared" si="35"/>
+        <v>22.955682490146447</v>
+      </c>
+    </row>
+    <row r="72" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K72" s="16"/>
+      <c r="L72" s="1">
+        <v>226.666382</v>
+      </c>
+      <c r="M72" s="1">
+        <v>349.98776199999998</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="30"/>
+        <v>23.246592481302024</v>
+      </c>
+      <c r="O72" s="1">
+        <v>-230.01416</v>
+      </c>
+      <c r="P72" s="1">
+        <v>349.98284899999999</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="31"/>
+        <v>23.076475322225644</v>
+      </c>
+      <c r="S72" s="16"/>
+      <c r="T72" s="1">
+        <v>227.52288799999999</v>
+      </c>
+      <c r="U72" s="1">
+        <v>349.98291</v>
+      </c>
+      <c r="V72" s="1">
+        <f t="shared" si="32"/>
+        <v>23.202473857073798</v>
+      </c>
+      <c r="W72" s="1">
+        <v>-217.744507</v>
+      </c>
+      <c r="X72" s="1">
+        <v>349.99002100000001</v>
+      </c>
+      <c r="Y72" s="1">
+        <f t="shared" si="33"/>
+        <v>23.718218075845609</v>
+      </c>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="1">
+        <v>213.396255</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>350.01980600000002</v>
+      </c>
+      <c r="AD72" s="1">
+        <f t="shared" si="34"/>
+        <v>23.960684629677129</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>-230.53185999999999</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>349.976654</v>
+      </c>
+      <c r="AG72" s="1">
+        <f t="shared" si="35"/>
+        <v>23.05014159398819</v>
+      </c>
+    </row>
+    <row r="73" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K73" s="16"/>
+      <c r="L73" s="1">
+        <v>298.49163800000002</v>
+      </c>
+      <c r="M73" s="1">
+        <v>399.98504600000001</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="30"/>
+        <v>23.151421948081538</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-304.72723400000001</v>
+      </c>
+      <c r="P73" s="1">
+        <v>399.98004200000003</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="31"/>
+        <v>22.91303860679546</v>
+      </c>
+      <c r="S73" s="16"/>
+      <c r="T73" s="1">
+        <v>301.58914199999998</v>
+      </c>
+      <c r="U73" s="1">
+        <v>399.99331699999999</v>
+      </c>
+      <c r="V73" s="1">
+        <f t="shared" si="32"/>
+        <v>23.032701774514003</v>
+      </c>
+      <c r="W73" s="1">
+        <v>-288.78118899999998</v>
+      </c>
+      <c r="X73" s="1">
+        <v>399.97000100000002</v>
+      </c>
+      <c r="Y73" s="1">
+        <f t="shared" si="33"/>
+        <v>23.536558939766689</v>
+      </c>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="1">
+        <v>282.07968099999999</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>399.96655299999998</v>
+      </c>
+      <c r="AD73" s="1">
+        <f t="shared" si="34"/>
+        <v>23.814297419685783</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>-306.55535900000001</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>399.98370399999999</v>
+      </c>
+      <c r="AG73" s="1">
+        <f t="shared" si="35"/>
+        <v>22.844825314309951</v>
+      </c>
+    </row>
+    <row r="74" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K74" s="16"/>
+      <c r="L74" s="1">
+        <v>382.943939</v>
+      </c>
+      <c r="M74" s="1">
+        <v>449.971588</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="30"/>
+        <v>22.994157006150928</v>
+      </c>
+      <c r="O74" s="1">
+        <v>-391.48651100000001</v>
+      </c>
+      <c r="P74" s="1">
+        <v>450.00186200000002</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="31"/>
+        <v>22.74342722452306</v>
+      </c>
+      <c r="S74" s="16"/>
+      <c r="T74" s="1">
+        <v>385.45330799999999</v>
+      </c>
+      <c r="U74" s="1">
+        <v>450.00088499999998</v>
+      </c>
+      <c r="V74" s="1">
+        <f t="shared" si="32"/>
+        <v>22.920679016433073</v>
+      </c>
+      <c r="W74" s="1">
+        <v>-371.78817700000002</v>
+      </c>
+      <c r="X74" s="1">
+        <v>449.97277800000001</v>
+      </c>
+      <c r="Y74" s="1">
+        <f t="shared" si="33"/>
+        <v>23.336646820394776</v>
+      </c>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="1">
+        <v>360.70559700000001</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>449.92923000000002</v>
+      </c>
+      <c r="AD74" s="1">
+        <f t="shared" si="34"/>
+        <v>23.690147663538824</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>-393.728027</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>449.98269699999997</v>
+      </c>
+      <c r="AG74" s="1">
+        <f t="shared" si="35"/>
+        <v>22.677629156392861</v>
+      </c>
+    </row>
+    <row r="75" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K75" s="16"/>
+      <c r="L75" s="1">
+        <v>471.79953</v>
+      </c>
+      <c r="M75" s="1">
+        <v>499.95931999999999</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="30"/>
+        <v>23.017381541622555</v>
+      </c>
+      <c r="O75" s="1">
+        <v>-484.431915</v>
+      </c>
+      <c r="P75" s="1">
+        <v>500.00930799999998</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="31"/>
+        <v>22.71756165745526</v>
+      </c>
+      <c r="S75" s="16"/>
+      <c r="T75" s="1">
+        <v>476.720123</v>
+      </c>
+      <c r="U75" s="1">
+        <v>499.97607399999998</v>
+      </c>
+      <c r="V75" s="1">
+        <f t="shared" si="32"/>
+        <v>22.899050757222049</v>
+      </c>
+      <c r="W75" s="1">
+        <v>-459.51104700000002</v>
+      </c>
+      <c r="X75" s="1">
+        <v>499.99032599999998</v>
+      </c>
+      <c r="Y75" s="1">
+        <f t="shared" si="33"/>
+        <v>23.324568773102659</v>
+      </c>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="1">
+        <v>445.39630099999999</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>499.98611499999998</v>
+      </c>
+      <c r="AD75" s="1">
+        <f t="shared" si="34"/>
+        <v>23.691068085802328</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>-487.80896000000001</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>500.015625</v>
+      </c>
+      <c r="AG75" s="1">
+        <f t="shared" si="35"/>
+        <v>22.639075575613408</v>
+      </c>
+    </row>
+    <row r="76" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K76" s="16"/>
+      <c r="L76" s="1">
+        <v>569.282104</v>
+      </c>
+      <c r="M76" s="1">
+        <v>549.925659</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="30"/>
+        <v>23.048370054063597</v>
+      </c>
+      <c r="O76" s="1">
+        <v>-581.99993900000004</v>
+      </c>
+      <c r="P76" s="1">
+        <v>550.02551300000005</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="31"/>
+        <v>22.799292230648959</v>
+      </c>
+      <c r="S76" s="16"/>
+      <c r="T76" s="1">
+        <v>573.53832999999997</v>
+      </c>
+      <c r="U76" s="1">
+        <v>549.94921899999997</v>
+      </c>
+      <c r="V76" s="1">
+        <f t="shared" si="32"/>
+        <v>22.963673633092913</v>
+      </c>
+      <c r="W76" s="1">
+        <v>-554.35845900000004</v>
+      </c>
+      <c r="X76" s="1">
+        <v>549.99206500000003</v>
+      </c>
+      <c r="Y76" s="1">
+        <f t="shared" si="33"/>
+        <v>23.359367774415627</v>
+      </c>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="1">
+        <v>537.96044900000004</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>550.01348900000005</v>
+      </c>
+      <c r="AD76" s="1">
+        <f t="shared" si="34"/>
+        <v>23.713636966330633</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>-582.990906</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>549.96832300000005</v>
+      </c>
+      <c r="AG76" s="1">
+        <f t="shared" si="35"/>
+        <v>22.77753830304141</v>
+      </c>
+    </row>
+    <row r="77" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K77" s="16"/>
+      <c r="L77" s="1">
+        <v>669.91528300000004</v>
+      </c>
+      <c r="M77" s="1">
+        <v>600.03704800000003</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="30"/>
+        <v>23.182919276248505</v>
+      </c>
+      <c r="O77" s="1">
+        <v>-684.13122599999997</v>
+      </c>
+      <c r="P77" s="1">
+        <v>599.993652</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="31"/>
+        <v>22.939130324601589</v>
+      </c>
+      <c r="S77" s="16"/>
+      <c r="T77" s="1">
+        <v>672.47753899999998</v>
+      </c>
+      <c r="U77" s="1">
+        <v>600.01245100000006</v>
+      </c>
+      <c r="V77" s="1">
+        <f t="shared" si="32"/>
+        <v>23.137763142826742</v>
+      </c>
+      <c r="W77" s="1">
+        <v>-652.91925000000003</v>
+      </c>
+      <c r="X77" s="1">
+        <v>600.01147500000002</v>
+      </c>
+      <c r="Y77" s="1">
+        <f t="shared" si="33"/>
+        <v>23.481715377004335</v>
+      </c>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="1">
+        <v>638.53845200000001</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>599.97576900000001</v>
+      </c>
+      <c r="AD77" s="1">
+        <f t="shared" si="34"/>
+        <v>23.743250992800558</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>-686.57647699999995</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>599.98120100000006</v>
+      </c>
+      <c r="AG77" s="1">
+        <f t="shared" si="35"/>
+        <v>22.8977697022295</v>
+      </c>
+    </row>
+    <row r="78" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K78" s="16"/>
+      <c r="L78" s="1">
+        <v>775.70989999999995</v>
+      </c>
+      <c r="M78" s="1">
+        <v>649.97174099999995</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="30"/>
+        <v>23.336988276113914</v>
+      </c>
+      <c r="O78" s="1">
+        <v>-798.57275400000003</v>
+      </c>
+      <c r="P78" s="1">
+        <v>649.94335899999999</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="31"/>
+        <v>22.999493194664055</v>
+      </c>
+      <c r="S78" s="16"/>
+      <c r="T78" s="1">
+        <v>776.76470900000004</v>
+      </c>
+      <c r="U78" s="1">
+        <v>649.95825200000002</v>
+      </c>
+      <c r="V78" s="1">
+        <f t="shared" si="32"/>
+        <v>23.320653652624937</v>
+      </c>
+      <c r="W78" s="1">
+        <v>-764.08526600000005</v>
+      </c>
+      <c r="X78" s="1">
+        <v>650.01324499999998</v>
+      </c>
+      <c r="Y78" s="1">
+        <f t="shared" si="33"/>
+        <v>23.515341684427632</v>
+      </c>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="1">
+        <v>746.67156999999997</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>649.89575200000002</v>
+      </c>
+      <c r="AD78" s="1">
+        <f t="shared" si="34"/>
+        <v>23.783671098834184</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>-802.95489499999996</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>649.92309599999999</v>
+      </c>
+      <c r="AG78" s="1">
+        <f t="shared" si="35"/>
+        <v>22.935932168792338</v>
+      </c>
+    </row>
+    <row r="79" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K79" s="16"/>
+      <c r="L79" s="1">
+        <v>895.71527100000003</v>
+      </c>
+      <c r="M79" s="1">
+        <v>699.93963599999995</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="30"/>
+        <v>23.387058288050369</v>
+      </c>
+      <c r="O79" s="1">
+        <v>-918.62976100000003</v>
+      </c>
+      <c r="P79" s="1">
+        <v>700.02258300000005</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="31"/>
+        <v>23.096267194554404</v>
+      </c>
+      <c r="S79" s="16"/>
+      <c r="T79" s="1">
+        <v>897.26873799999998</v>
+      </c>
+      <c r="U79" s="1">
+        <v>699.97283900000002</v>
+      </c>
+      <c r="V79" s="1">
+        <f t="shared" si="32"/>
+        <v>23.367912626415634</v>
+      </c>
+      <c r="W79" s="1">
+        <v>-881.39318800000001</v>
+      </c>
+      <c r="X79" s="1">
+        <v>699.97979699999996</v>
+      </c>
+      <c r="Y79" s="1">
+        <f t="shared" si="33"/>
+        <v>23.577657825488778</v>
+      </c>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="1">
+        <v>868.96301300000005</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>699.95434599999999</v>
+      </c>
+      <c r="AD79" s="1">
+        <f t="shared" si="34"/>
+        <v>23.744830226077056</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>-920.442993</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>699.96484399999997</v>
+      </c>
+      <c r="AG79" s="1">
+        <f t="shared" si="35"/>
+        <v>23.071603526801304</v>
+      </c>
+    </row>
+    <row r="80" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K80" s="16"/>
+      <c r="L80" s="1">
+        <v>1011.410828</v>
+      </c>
+      <c r="M80" s="1">
+        <v>743.77160600000002</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="30"/>
+        <v>23.387068917419118</v>
+      </c>
+      <c r="O80" s="1">
+        <v>-1024.7486570000001</v>
+      </c>
+      <c r="P80" s="1">
+        <v>743.59960899999999</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="31"/>
+        <v>23.228997852342065</v>
+      </c>
+      <c r="S80" s="16"/>
+      <c r="T80" s="1">
+        <v>1021.655884</v>
+      </c>
+      <c r="U80" s="1">
+        <v>747.86999500000002</v>
+      </c>
+      <c r="V80" s="1">
+        <f t="shared" si="32"/>
+        <v>23.397733450160914</v>
+      </c>
+      <c r="W80" s="1">
+        <v>-986.48852499999998</v>
+      </c>
+      <c r="X80" s="1">
+        <v>743.98083499999996</v>
+      </c>
+      <c r="Y80" s="1">
+        <f t="shared" si="33"/>
+        <v>23.687309211428719</v>
+      </c>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="1">
+        <v>1006.931152</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>749.94921899999997</v>
+      </c>
+      <c r="AD80" s="1">
+        <f t="shared" si="34"/>
+        <v>23.633713617630153</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>-1043.3251949999999</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>749.96911599999999</v>
+      </c>
+      <c r="AG80" s="1">
+        <f t="shared" si="35"/>
+        <v>23.218466450634491</v>
+      </c>
+    </row>
+    <row r="81" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K81" s="16"/>
+      <c r="L81" s="3">
+        <f>(M81/N80)^2</f>
+        <v>1170.1145591859722</v>
+      </c>
+      <c r="M81" s="1">
+        <v>800</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="3">
+        <f>(P81/Q80)^2</f>
+        <v>1186.0937742569392</v>
+      </c>
+      <c r="P81" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q81" s="1"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="3">
+        <f>(U81/V80)^2</f>
+        <v>1169.0481412618308</v>
+      </c>
+      <c r="U81" s="1">
+        <v>800</v>
+      </c>
+      <c r="V81" s="1"/>
+      <c r="W81" s="3">
+        <f>(X81/Y80)^2</f>
+        <v>1140.6397845829645</v>
+      </c>
+      <c r="X81" s="1">
+        <v>800</v>
+      </c>
+      <c r="Y81" s="1"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="3">
+        <f>(AC81/AD80)^2</f>
+        <v>1145.8190454767778</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="3">
+        <f>(AF81/AG80)^2</f>
+        <v>1187.1699920083583</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>800</v>
+      </c>
+      <c r="AG81" s="1"/>
+    </row>
+    <row r="82" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K82" s="16"/>
+      <c r="L82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M82" s="3">
+        <f>SQRT(L82)*N80</f>
+        <v>905.77728433769369</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P82" s="3">
+        <f>SQRT(O82)*Q80</f>
+        <v>899.65521831208673</v>
+      </c>
+      <c r="Q82" s="1"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U82" s="3">
+        <f>SQRT(T82)*V80</f>
+        <v>906.19031991473423</v>
+      </c>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X82" s="3">
+        <f>SQRT(W82)*Y80</f>
+        <v>917.40554092328966</v>
+      </c>
+      <c r="Y82" s="1"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AC82" s="3">
+        <f>SQRT(AB82)*AD80</f>
+        <v>915.32979250117023</v>
+      </c>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AF82" s="3">
+        <f>SQRT(AE82)*AG80</f>
+        <v>899.2473388778302</v>
+      </c>
+      <c r="AG82" s="1"/>
+    </row>
+    <row r="83" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K83" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L83" s="1">
+        <v>17.667324000000001</v>
+      </c>
+      <c r="M83" s="1">
+        <v>99.929610999999994</v>
+      </c>
+      <c r="N83" s="1">
+        <f>M83/SQRT(ABS(L83))</f>
+        <v>23.774358650452807</v>
+      </c>
+      <c r="O83" s="1">
+        <v>-16.903331999999999</v>
+      </c>
+      <c r="P83" s="1">
+        <v>99.952133000000003</v>
+      </c>
+      <c r="Q83" s="1">
+        <f>P83/SQRT(ABS(O83))</f>
+        <v>24.311172546532813</v>
+      </c>
+      <c r="S83" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T83" s="1">
+        <v>17.257915000000001</v>
+      </c>
+      <c r="U83" s="1">
+        <v>99.930449999999993</v>
+      </c>
+      <c r="V83" s="1">
+        <f>U83/SQRT(ABS(T83))</f>
+        <v>24.054906894181322</v>
+      </c>
+      <c r="W83" s="1">
+        <v>-17.231114999999999</v>
+      </c>
+      <c r="X83" s="1">
+        <v>99.878722999999994</v>
+      </c>
+      <c r="Y83" s="1">
+        <f>X83/SQRT(ABS(W83))</f>
+        <v>24.061145015280626</v>
+      </c>
+      <c r="AA83" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>16.929273999999999</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>99.962326000000004</v>
+      </c>
+      <c r="AD83" s="1">
+        <f>AC83/SQRT(ABS(AB83))</f>
+        <v>24.295015810260356</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>-17.543291</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>99.925171000000006</v>
+      </c>
+      <c r="AG83" s="1">
+        <f>AF83/SQRT(ABS(AE83))</f>
+        <v>23.857194238489146</v>
+      </c>
+    </row>
+    <row r="84" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K84" s="16"/>
+      <c r="L84" s="1">
+        <v>38.599894999999997</v>
+      </c>
+      <c r="M84" s="1">
+        <v>149.961365</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" ref="N84:N96" si="36">M84/SQRT(ABS(L84))</f>
+        <v>24.137168555033586</v>
+      </c>
+      <c r="O84" s="1">
+        <v>-36.763210000000001</v>
+      </c>
+      <c r="P84" s="1">
+        <v>149.94564800000001</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" ref="Q84:Q96" si="37">P84/SQRT(ABS(O84))</f>
+        <v>24.730172907982809</v>
+      </c>
+      <c r="S84" s="16"/>
+      <c r="T84" s="1">
+        <v>37.675125000000001</v>
+      </c>
+      <c r="U84" s="1">
+        <v>149.956253</v>
+      </c>
+      <c r="V84" s="1">
+        <f t="shared" ref="V84:V96" si="38">U84/SQRT(ABS(T84))</f>
+        <v>24.430774160958599</v>
+      </c>
+      <c r="W84" s="1">
+        <v>-37.386028000000003</v>
+      </c>
+      <c r="X84" s="1">
+        <v>149.959351</v>
+      </c>
+      <c r="Y84" s="1">
+        <f t="shared" ref="Y84:Y96" si="39">X84/SQRT(ABS(W84))</f>
+        <v>24.525557526283006</v>
+      </c>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="1">
+        <v>36.221080999999998</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>149.95605499999999</v>
+      </c>
+      <c r="AD84" s="1">
+        <f t="shared" ref="AD84:AD96" si="40">AC84/SQRT(ABS(AB84))</f>
+        <v>24.916285748666116</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>-38.015231999999997</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>149.967804</v>
+      </c>
+      <c r="AG84" s="1">
+        <f t="shared" ref="AG84:AG96" si="41">AF84/SQRT(ABS(AE84))</f>
+        <v>24.323115912660015</v>
+      </c>
+    </row>
+    <row r="85" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K85" s="16"/>
+      <c r="L85" s="1">
+        <v>68.351096999999996</v>
+      </c>
+      <c r="M85" s="1">
+        <v>199.996658</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="36"/>
+        <v>24.190786802074459</v>
+      </c>
+      <c r="O85" s="1">
+        <v>-65.207984999999994</v>
+      </c>
+      <c r="P85" s="1">
+        <v>199.99792500000001</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="37"/>
+        <v>24.767096695497248</v>
+      </c>
+      <c r="S85" s="16"/>
+      <c r="T85" s="1">
+        <v>66.761688000000007</v>
+      </c>
+      <c r="U85" s="1">
+        <v>199.990219</v>
+      </c>
+      <c r="V85" s="1">
+        <f t="shared" si="38"/>
+        <v>24.476262462795113</v>
+      </c>
+      <c r="W85" s="1">
+        <v>-66.759567000000004</v>
+      </c>
+      <c r="X85" s="1">
+        <v>199.9888</v>
+      </c>
+      <c r="Y85" s="1">
+        <f t="shared" si="39"/>
+        <v>24.476477603703213</v>
+      </c>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="1">
+        <v>64.423332000000002</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>200.00266999999999</v>
+      </c>
+      <c r="AD85" s="1">
+        <f t="shared" si="40"/>
+        <v>24.918058551533967</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>-67.817818000000003</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>199.99714700000001</v>
+      </c>
+      <c r="AG85" s="1">
+        <f t="shared" si="41"/>
+        <v>24.285770921558925</v>
+      </c>
+    </row>
+    <row r="86" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K86" s="16"/>
+      <c r="L86" s="1">
+        <v>108.63582599999999</v>
+      </c>
+      <c r="M86" s="1">
+        <v>249.99389600000001</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" si="36"/>
+        <v>23.985173779381117</v>
+      </c>
+      <c r="O86" s="1">
+        <v>-103.26329</v>
+      </c>
+      <c r="P86" s="1">
+        <v>249.976654</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="37"/>
+        <v>24.599510869063785</v>
+      </c>
+      <c r="S86" s="16"/>
+      <c r="T86" s="1">
+        <v>105.563507</v>
+      </c>
+      <c r="U86" s="1">
+        <v>250.001541</v>
+      </c>
+      <c r="V86" s="1">
+        <f t="shared" si="38"/>
+        <v>24.332446701597366</v>
+      </c>
+      <c r="W86" s="1">
+        <v>-105.38368199999999</v>
+      </c>
+      <c r="X86" s="1">
+        <v>249.99156199999999</v>
+      </c>
+      <c r="Y86" s="1">
+        <f t="shared" si="39"/>
+        <v>24.352226022184048</v>
+      </c>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="1">
+        <v>101.378517</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>249.99691799999999</v>
+      </c>
+      <c r="AD86" s="1">
+        <f t="shared" si="40"/>
+        <v>24.829140595522855</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>-106.576088</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>249.97236599999999</v>
+      </c>
+      <c r="AG86" s="1">
+        <f t="shared" si="41"/>
+        <v>24.213753303721333</v>
+      </c>
+    </row>
+    <row r="87" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K87" s="16"/>
+      <c r="L87" s="1">
+        <v>154.99211099999999</v>
+      </c>
+      <c r="M87" s="1">
+        <v>299.992615</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="36"/>
+        <v>24.0965999170059</v>
+      </c>
+      <c r="O87" s="1">
+        <v>-147.60041799999999</v>
+      </c>
+      <c r="P87" s="1">
+        <v>300.00955199999999</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="37"/>
+        <v>24.6939911825996</v>
+      </c>
+      <c r="S87" s="16"/>
+      <c r="T87" s="1">
+        <v>150.63395700000001</v>
+      </c>
+      <c r="U87" s="1">
+        <v>299.98272700000001</v>
+      </c>
+      <c r="V87" s="1">
+        <f t="shared" si="38"/>
+        <v>24.441891191731791</v>
+      </c>
+      <c r="W87" s="1">
+        <v>-150.219177</v>
+      </c>
+      <c r="X87" s="1">
+        <v>299.99179099999998</v>
+      </c>
+      <c r="Y87" s="1">
+        <f t="shared" si="39"/>
+        <v>24.476351515636715</v>
+      </c>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="1">
+        <v>144.40057400000001</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>299.98611499999998</v>
+      </c>
+      <c r="AD87" s="1">
+        <f t="shared" si="40"/>
+        <v>24.964144852031275</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>-151.34728999999999</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>299.99920700000001</v>
+      </c>
+      <c r="AG87" s="1">
+        <f t="shared" si="41"/>
+        <v>24.385562745530915</v>
+      </c>
+    </row>
+    <row r="88" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K88" s="16"/>
+      <c r="L88" s="1">
+        <v>209.88743600000001</v>
+      </c>
+      <c r="M88" s="1">
+        <v>349.98037699999998</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="36"/>
+        <v>24.15741574666141</v>
+      </c>
+      <c r="O88" s="1">
+        <v>-200.871475</v>
+      </c>
+      <c r="P88" s="1">
+        <v>350.00253300000003</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="37"/>
+        <v>24.695171872092132</v>
+      </c>
+      <c r="S88" s="16"/>
+      <c r="T88" s="1">
+        <v>204.64184599999999</v>
+      </c>
+      <c r="U88" s="1">
+        <v>349.970551</v>
+      </c>
+      <c r="V88" s="1">
+        <f t="shared" si="38"/>
+        <v>24.464383659742321</v>
+      </c>
+      <c r="W88" s="1">
+        <v>-203.30256700000001</v>
+      </c>
+      <c r="X88" s="1">
+        <v>350.00775099999998</v>
+      </c>
+      <c r="Y88" s="1">
+        <f t="shared" si="39"/>
+        <v>24.547441338513572</v>
+      </c>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="1">
+        <v>195.276489</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>350.00891100000001</v>
+      </c>
+      <c r="AD88" s="1">
+        <f t="shared" si="40"/>
+        <v>25.046908102067533</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>-205.10902400000001</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>349.99954200000002</v>
+      </c>
+      <c r="AG88" s="1">
+        <f t="shared" si="41"/>
+        <v>24.438530724263217</v>
+      </c>
+    </row>
+    <row r="89" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K89" s="16"/>
+      <c r="L89" s="1">
+        <v>278.30380200000002</v>
+      </c>
+      <c r="M89" s="1">
+        <v>400.01205399999998</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="36"/>
+        <v>23.9780305333896</v>
+      </c>
+      <c r="O89" s="1">
+        <v>-267.271973</v>
+      </c>
+      <c r="P89" s="1">
+        <v>399.99594100000002</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="37"/>
+        <v>24.466895917798478</v>
+      </c>
+      <c r="S89" s="16"/>
+      <c r="T89" s="1">
+        <v>271.15774499999998</v>
+      </c>
+      <c r="U89" s="1">
+        <v>399.99456800000002</v>
+      </c>
+      <c r="V89" s="1">
+        <f t="shared" si="38"/>
+        <v>24.290870952978288</v>
+      </c>
+      <c r="W89" s="1">
+        <v>-271.18530299999998</v>
+      </c>
+      <c r="X89" s="1">
+        <v>399.99240099999997</v>
+      </c>
+      <c r="Y89" s="1">
+        <f t="shared" si="39"/>
+        <v>24.289505104878103</v>
+      </c>
+      <c r="AA89" s="16"/>
+      <c r="AB89" s="1">
+        <v>260.393372</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>399.98788500000001</v>
+      </c>
+      <c r="AD89" s="1">
+        <f t="shared" si="40"/>
+        <v>24.787451339028678</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>-272.38122600000003</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>399.99920700000001</v>
+      </c>
+      <c r="AG89" s="1">
+        <f t="shared" si="41"/>
+        <v>24.236535813607414</v>
+      </c>
+    </row>
+    <row r="90" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K90" s="16"/>
+      <c r="L90" s="1">
+        <v>358.26095600000002</v>
+      </c>
+      <c r="M90" s="1">
+        <v>449.97827100000001</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="36"/>
+        <v>23.773427630133039</v>
+      </c>
+      <c r="O90" s="1">
+        <v>-344.64205900000002</v>
+      </c>
+      <c r="P90" s="1">
+        <v>449.98620599999998</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="37"/>
+        <v>24.239020326503564</v>
+      </c>
+      <c r="S90" s="16"/>
+      <c r="T90" s="1">
+        <v>348.669464</v>
+      </c>
+      <c r="U90" s="1">
+        <v>449.99154700000003</v>
+      </c>
+      <c r="V90" s="1">
+        <f t="shared" si="38"/>
+        <v>24.09890993856979</v>
+      </c>
+      <c r="W90" s="1">
+        <v>-347.88476600000001</v>
+      </c>
+      <c r="X90" s="1">
+        <v>449.99423200000001</v>
+      </c>
+      <c r="Y90" s="1">
+        <f t="shared" si="39"/>
+        <v>24.126217650895704</v>
+      </c>
+      <c r="AA90" s="16"/>
+      <c r="AB90" s="1">
+        <v>333.49804699999999</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>449.98672499999998</v>
+      </c>
+      <c r="AD90" s="1">
+        <f t="shared" si="40"/>
+        <v>24.640700747678942</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>-349.41748000000001</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>449.97842400000002</v>
+      </c>
+      <c r="AG90" s="1">
+        <f t="shared" si="41"/>
+        <v>24.072399191354823</v>
+      </c>
+    </row>
+    <row r="91" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K91" s="16"/>
+      <c r="L91" s="1">
+        <v>441.48666400000002</v>
+      </c>
+      <c r="M91" s="1">
+        <v>500.00610399999999</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="36"/>
+        <v>23.796687721140248</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-426.51153599999998</v>
+      </c>
+      <c r="P91" s="1">
+        <v>499.98306300000002</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="37"/>
+        <v>24.209727532090206</v>
+      </c>
+      <c r="S91" s="16"/>
+      <c r="T91" s="1">
+        <v>429.47598299999999</v>
+      </c>
+      <c r="U91" s="1">
+        <v>499.95318600000002</v>
+      </c>
+      <c r="V91" s="1">
+        <f t="shared" si="38"/>
+        <v>24.124587662360526</v>
+      </c>
+      <c r="W91" s="1">
+        <v>-429.06823700000001</v>
+      </c>
+      <c r="X91" s="1">
+        <v>499.98730499999999</v>
+      </c>
+      <c r="Y91" s="1">
+        <f t="shared" si="39"/>
+        <v>24.13769495702352</v>
+      </c>
+      <c r="AA91" s="16"/>
+      <c r="AB91" s="1">
+        <v>412.93402099999997</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>499.97222900000003</v>
+      </c>
+      <c r="AD91" s="1">
+        <f t="shared" si="40"/>
+        <v>24.603990432936758</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>-431.45526100000001</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>499.99371300000001</v>
+      </c>
+      <c r="AG91" s="1">
+        <f t="shared" si="41"/>
+        <v>24.071140011695338</v>
+      </c>
+    </row>
+    <row r="92" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K92" s="16"/>
+      <c r="L92" s="1">
+        <v>533.96911599999999</v>
+      </c>
+      <c r="M92" s="1">
+        <v>549.96478300000001</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" si="36"/>
+        <v>23.799991992469675</v>
+      </c>
+      <c r="O92" s="1">
+        <v>-515.80206299999998</v>
+      </c>
+      <c r="P92" s="1">
+        <v>549.97125200000005</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="37"/>
+        <v>24.215779381726975</v>
+      </c>
+      <c r="S92" s="16"/>
+      <c r="T92" s="1">
+        <v>518.55938700000002</v>
+      </c>
+      <c r="U92" s="1">
+        <v>549.99493399999994</v>
+      </c>
+      <c r="V92" s="1">
+        <f t="shared" si="38"/>
+        <v>24.152352530817726</v>
+      </c>
+      <c r="W92" s="1">
+        <v>-517.84808299999997</v>
+      </c>
+      <c r="X92" s="1">
+        <v>549.96124299999997</v>
+      </c>
+      <c r="Y92" s="1">
+        <f t="shared" si="39"/>
+        <v>24.167453876909068</v>
+      </c>
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="1">
+        <v>500.28128099999998</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>549.96801800000003</v>
+      </c>
+      <c r="AD92" s="1">
+        <f t="shared" si="40"/>
+        <v>24.588402196049856</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>-518.89855999999997</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>550.03338599999995</v>
+      </c>
+      <c r="AG92" s="1">
+        <f t="shared" si="41"/>
+        <v>24.146145785727462</v>
+      </c>
+    </row>
+    <row r="93" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K93" s="16"/>
+      <c r="L93" s="1">
+        <v>628.71319600000004</v>
+      </c>
+      <c r="M93" s="1">
+        <v>599.97589100000005</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" si="36"/>
+        <v>23.928061235625634</v>
+      </c>
+      <c r="O93" s="1">
+        <v>-608.61914100000001</v>
+      </c>
+      <c r="P93" s="1">
+        <v>599.99414100000001</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" si="37"/>
+        <v>24.320595583443144</v>
+      </c>
+      <c r="S93" s="16"/>
+      <c r="T93" s="1">
+        <v>612.97137499999997</v>
+      </c>
+      <c r="U93" s="1">
+        <v>599.94104000000004</v>
+      </c>
+      <c r="V93" s="1">
+        <f t="shared" si="38"/>
+        <v>24.231956160964621</v>
+      </c>
+      <c r="W93" s="1">
+        <v>-605.44476299999997</v>
+      </c>
+      <c r="X93" s="1">
+        <v>599.98419200000001</v>
+      </c>
+      <c r="Y93" s="1">
+        <f t="shared" si="39"/>
+        <v>24.383864961757549</v>
+      </c>
+      <c r="AA93" s="16"/>
+      <c r="AB93" s="1">
+        <v>595.44476299999997</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>599.92138699999998</v>
+      </c>
+      <c r="AD93" s="1">
+        <f t="shared" si="40"/>
+        <v>24.585192022588384</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>-609.85968000000003</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>599.95819100000006</v>
+      </c>
+      <c r="AG93" s="1">
+        <f t="shared" si="41"/>
+        <v>24.294391522442805</v>
+      </c>
+    </row>
+    <row r="94" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K94" s="16"/>
+      <c r="L94" s="1">
+        <v>730.98345900000004</v>
+      </c>
+      <c r="M94" s="1">
+        <v>649.97082499999999</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" si="36"/>
+        <v>24.040311363445902</v>
+      </c>
+      <c r="O94" s="1">
+        <v>-712.02642800000001</v>
+      </c>
+      <c r="P94" s="1">
+        <v>649.95257600000002</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" si="37"/>
+        <v>24.357550555512201</v>
+      </c>
+      <c r="S94" s="16"/>
+      <c r="T94" s="1">
+        <v>714.83105499999999</v>
+      </c>
+      <c r="U94" s="1">
+        <v>649.93597399999999</v>
+      </c>
+      <c r="V94" s="1">
+        <f t="shared" si="38"/>
+        <v>24.309099431855913</v>
+      </c>
+      <c r="W94" s="1">
+        <v>-707.74011199999995</v>
+      </c>
+      <c r="X94" s="1">
+        <v>650.05554199999995</v>
+      </c>
+      <c r="Y94" s="1">
+        <f t="shared" si="39"/>
+        <v>24.435068450302055</v>
+      </c>
+      <c r="AA94" s="16"/>
+      <c r="AB94" s="1">
+        <v>698.28619400000002</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>649.95977800000003</v>
+      </c>
+      <c r="AD94" s="1">
+        <f t="shared" si="40"/>
+        <v>24.596298437169949</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>-711.78179899999998</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>649.96380599999998</v>
+      </c>
+      <c r="AG94" s="1">
+        <f t="shared" si="41"/>
+        <v>24.362156789525525</v>
+      </c>
+    </row>
+    <row r="95" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K95" s="16"/>
+      <c r="L95" s="1">
+        <v>846.11993399999994</v>
+      </c>
+      <c r="M95" s="1">
+        <v>699.95660399999997</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" si="36"/>
+        <v>24.063298143022298</v>
+      </c>
+      <c r="O95" s="1">
+        <v>-824.13757299999997</v>
+      </c>
+      <c r="P95" s="1">
+        <v>699.95513900000003</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="37"/>
+        <v>24.382057394197894</v>
+      </c>
+      <c r="S95" s="16"/>
+      <c r="T95" s="1">
+        <v>824.51336700000002</v>
+      </c>
+      <c r="U95" s="1">
+        <v>699.97741699999995</v>
+      </c>
+      <c r="V95" s="1">
+        <f t="shared" si="38"/>
+        <v>24.377276223091286</v>
+      </c>
+      <c r="W95" s="1">
+        <v>-812.59448199999997</v>
+      </c>
+      <c r="X95" s="1">
+        <v>699.96203600000001</v>
+      </c>
+      <c r="Y95" s="1">
+        <f t="shared" si="39"/>
+        <v>24.554865029022594</v>
+      </c>
+      <c r="AA95" s="16"/>
+      <c r="AB95" s="1">
+        <v>810.21264599999995</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>699.93774399999995</v>
+      </c>
+      <c r="AD95" s="1">
+        <f t="shared" si="40"/>
+        <v>24.590077904883941</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>-823.99468999999999</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>699.91546600000004</v>
+      </c>
+      <c r="AG95" s="1">
+        <f t="shared" si="41"/>
+        <v>24.382789182378964</v>
+      </c>
+    </row>
+    <row r="96" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K96" s="16"/>
+      <c r="L96" s="1">
+        <v>955.62908900000002</v>
+      </c>
+      <c r="M96" s="1">
+        <v>742.82775900000001</v>
+      </c>
+      <c r="N96" s="1">
+        <f t="shared" si="36"/>
+        <v>24.029428621851217</v>
+      </c>
+      <c r="O96" s="1">
+        <v>-921.71917699999995</v>
+      </c>
+      <c r="P96" s="1">
+        <v>740.92730700000004</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="37"/>
+        <v>24.404858243456971</v>
+      </c>
+      <c r="S96" s="16"/>
+      <c r="T96" s="1">
+        <v>929.958618</v>
+      </c>
+      <c r="U96" s="1">
+        <v>742.33703600000001</v>
+      </c>
+      <c r="V96" s="1">
+        <f t="shared" si="38"/>
+        <v>24.342731945952295</v>
+      </c>
+      <c r="W96" s="1">
+        <v>-918.91033900000002</v>
+      </c>
+      <c r="X96" s="1">
+        <v>747.64849900000002</v>
+      </c>
+      <c r="Y96" s="1">
+        <f t="shared" si="39"/>
+        <v>24.663851494807236</v>
+      </c>
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="1">
+        <v>942.82647699999995</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>749.99694799999997</v>
+      </c>
+      <c r="AD96" s="1">
+        <f t="shared" si="40"/>
+        <v>24.425508344294112</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>-945.26696800000002</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>749.98559599999999</v>
+      </c>
+      <c r="AG96" s="1">
+        <f t="shared" si="41"/>
+        <v>24.393587839610081</v>
+      </c>
+    </row>
+    <row r="97" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K97" s="16"/>
+      <c r="L97" s="3">
+        <f>(M97/N96)^2</f>
+        <v>1108.3912423635204</v>
+      </c>
+      <c r="M97" s="1">
+        <v>800</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="3">
+        <f>(P97/Q96)^2</f>
+        <v>1074.5518970427565</v>
+      </c>
+      <c r="P97" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q97" s="1"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="3">
+        <f>(U97/V96)^2</f>
+        <v>1080.0437308358496</v>
+      </c>
+      <c r="U97" s="1">
+        <v>800</v>
+      </c>
+      <c r="V97" s="1"/>
+      <c r="W97" s="3">
+        <f>(X97/Y96)^2</f>
+        <v>1052.1028097984149</v>
+      </c>
+      <c r="X97" s="1">
+        <v>800</v>
+      </c>
+      <c r="Y97" s="1"/>
+      <c r="AA97" s="16"/>
+      <c r="AB97" s="3">
+        <f>(AC97/AD96)^2</f>
+        <v>1072.7357444519923</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="3">
+        <f>(AF97/AG96)^2</f>
+        <v>1075.5450622639403</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>800</v>
+      </c>
+      <c r="AG97" s="1"/>
+    </row>
+    <row r="98" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K98" s="16"/>
+      <c r="L98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M98" s="3">
+        <f>SQRT(L98)*N96</f>
+        <v>930.65576871309599</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P98" s="3">
+        <f>SQRT(O98)*Q96</f>
+        <v>945.19609543461638</v>
+      </c>
+      <c r="Q98" s="1"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U98" s="3">
+        <f>SQRT(T98)*V96</f>
+        <v>942.78995427864504</v>
+      </c>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X98" s="3">
+        <f>SQRT(W98)*Y96</f>
+        <v>955.22686092721335</v>
+      </c>
+      <c r="Y98" s="1"/>
+      <c r="AA98" s="16"/>
+      <c r="AB98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AC98" s="3">
+        <f>SQRT(AB98)*AD96</f>
+        <v>945.99587040101392</v>
+      </c>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AF98" s="3">
+        <f>SQRT(AE98)*AG96</f>
+        <v>944.75959457057604</v>
+      </c>
+      <c r="AG98" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="33">
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AA3:AA18"/>
+    <mergeCell ref="AA19:AA34"/>
+    <mergeCell ref="AA35:AA50"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="S51:S66"/>
+    <mergeCell ref="S67:S82"/>
+    <mergeCell ref="S83:S98"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA51:AA66"/>
+    <mergeCell ref="AA67:AA82"/>
+    <mergeCell ref="AA83:AA98"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S3:S18"/>
+    <mergeCell ref="S19:S34"/>
+    <mergeCell ref="S35:S50"/>
+    <mergeCell ref="K51:K66"/>
+    <mergeCell ref="K67:K82"/>
+    <mergeCell ref="K83:K98"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K19:K34"/>
+    <mergeCell ref="K35:K50"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A50"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7705,10 +13842,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:I50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7716,21 +13853,33 @@
     <col min="1" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="19"/>
+      <c r="K1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7758,8 +13907,29 @@
       <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>47</v>
       </c>
@@ -7777,8 +13947,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="e">
+        <f>M3/SQRT(ABS(L3))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="e">
+        <f>P3/SQRT(ABS(O3))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7794,8 +13979,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="16"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="e">
+        <f t="shared" ref="N4:N16" si="2">M4/SQRT(ABS(L4))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="e">
+        <f t="shared" ref="Q4:Q16" si="3">P4/SQRT(ABS(O4))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7811,8 +14009,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="16"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7828,8 +14039,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="16"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7845,8 +14069,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="16"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7862,8 +14099,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="16"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7879,8 +14129,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="16"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7896,8 +14159,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="16"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7913,8 +14189,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="16"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7930,8 +14219,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="16"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7947,8 +14249,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="16"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7964,8 +14279,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="16"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7981,8 +14309,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="16"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7998,8 +14339,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="16"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3" t="e">
         <f>(C17/D16)^2</f>
@@ -8019,8 +14373,25 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="16"/>
+      <c r="L17" s="3" t="e">
+        <f>(M17/N16)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="1">
+        <v>800</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="3" t="e">
+        <f>(P17/Q16)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="1">
         <v>1500</v>
@@ -8040,8 +14411,25 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="16"/>
+      <c r="L18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M18" s="3" t="e">
+        <f>SQRT(L18)*N16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P18" s="3" t="e">
+        <f>SQRT(O18)*Q16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>48</v>
       </c>
@@ -8059,229 +14447,413 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="e">
+        <f>M19/SQRT(ABS(L19))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="e">
+        <f>P19/SQRT(ABS(O19))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="e">
-        <f t="shared" ref="D20:D32" si="2">C20/SQRT(ABS(B20))</f>
+        <f t="shared" ref="D20:D32" si="4">C20/SQRT(ABS(B20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="e">
-        <f t="shared" ref="H20:H32" si="3">G20/SQRT(ABS(F20))</f>
+        <f t="shared" ref="H20:H32" si="5">G20/SQRT(ABS(F20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="16"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="e">
+        <f t="shared" ref="N20:N32" si="6">M20/SQRT(ABS(L20))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="e">
+        <f t="shared" ref="Q20:Q32" si="7">P20/SQRT(ABS(O20))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="16"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="16"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="16"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="16"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="16"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="16"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="16"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="16"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="16"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="16"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="16"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="16"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="3" t="e">
         <f>(C33/D32)^2</f>
@@ -8301,8 +14873,25 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="16"/>
+      <c r="L33" s="3" t="e">
+        <f>(M33/N32)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="1">
+        <v>800</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="3" t="e">
+        <f>(P33/Q32)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="1">
         <v>1500</v>
@@ -8322,8 +14911,25 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="16"/>
+      <c r="L34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M34" s="3" t="e">
+        <f>SQRT(L34)*N32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P34" s="3" t="e">
+        <f>SQRT(O34)*Q32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>49</v>
       </c>
@@ -8341,229 +14947,413 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1" t="e">
+        <f>M35/SQRT(ABS(L35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1" t="e">
+        <f>P35/SQRT(ABS(O35))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="e">
-        <f t="shared" ref="D36:D48" si="4">C36/SQRT(ABS(B36))</f>
+        <f t="shared" ref="D36:D48" si="8">C36/SQRT(ABS(B36))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="e">
-        <f t="shared" ref="H36:H48" si="5">G36/SQRT(ABS(F36))</f>
+        <f t="shared" ref="H36:H48" si="9">G36/SQRT(ABS(F36))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="16"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1" t="e">
+        <f t="shared" ref="N36:N48" si="10">M36/SQRT(ABS(L36))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="e">
+        <f t="shared" ref="Q36:Q48" si="11">P36/SQRT(ABS(O36))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="16"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="16"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="16"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="16"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="16"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="16"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="16"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="16"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="16"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="16"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="16"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="16"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="3" t="e">
         <f>(C49/D48)^2</f>
@@ -8583,8 +15373,25 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="16"/>
+      <c r="L49" s="3" t="e">
+        <f>(M49/N48)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="1">
+        <v>800</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="3" t="e">
+        <f>(P49/Q48)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="1">
         <v>1500</v>
@@ -8604,8 +15411,25 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="16"/>
+      <c r="L50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M50" s="3" t="e">
+        <f>SQRT(L50)*N48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P50" s="3" t="e">
+        <f>SQRT(O50)*Q48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>45</v>
       </c>
@@ -8623,229 +15447,413 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1" t="e">
+        <f>M51/SQRT(ABS(L51))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1" t="e">
+        <f>P51/SQRT(ABS(O51))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="e">
-        <f t="shared" ref="D52:D64" si="6">C52/SQRT(ABS(B52))</f>
+        <f t="shared" ref="D52:D64" si="12">C52/SQRT(ABS(B52))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="e">
-        <f t="shared" ref="H52:H64" si="7">G52/SQRT(ABS(F52))</f>
+        <f t="shared" ref="H52:H64" si="13">G52/SQRT(ABS(F52))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52" s="16"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1" t="e">
+        <f t="shared" ref="N52:N64" si="14">M52/SQRT(ABS(L52))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1" t="e">
+        <f t="shared" ref="Q52:Q64" si="15">P52/SQRT(ABS(O52))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53" s="16"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="16"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55" s="16"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="16"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57" s="16"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58" s="16"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59" s="16"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K60" s="16"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61" s="16"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K62" s="16"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K63" s="16"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="16"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="3" t="e">
         <f>(C65/D64)^2</f>
@@ -8865,8 +15873,25 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65" s="16"/>
+      <c r="L65" s="3" t="e">
+        <f>(M65/N64)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="1">
+        <v>800</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="3" t="e">
+        <f>(P65/Q64)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P65" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="1">
         <v>1500</v>
@@ -8886,9 +15911,535 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3" t="e">
+        <f>SQRT(L66)*N64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3" t="e">
+        <f>SQRT(O66)*Q64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K67" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1" t="e">
+        <f>M67/SQRT(ABS(L67))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1" t="e">
+        <f>P67/SQRT(ABS(O67))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K68" s="16"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1" t="e">
+        <f t="shared" ref="N68:N80" si="16">M68/SQRT(ABS(L68))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1" t="e">
+        <f t="shared" ref="Q68:Q80" si="17">P68/SQRT(ABS(O68))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K69" s="16"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K70" s="16"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K71" s="16"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K72" s="16"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K73" s="16"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K74" s="16"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K75" s="16"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K76" s="16"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K77" s="16"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K78" s="16"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K79" s="16"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K80" s="16"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K81" s="16"/>
+      <c r="L81" s="3" t="e">
+        <f>(M81/N80)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M81" s="1">
+        <v>800</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="3" t="e">
+        <f>(P81/Q80)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P81" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K82" s="16"/>
+      <c r="L82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M82" s="3" t="e">
+        <f>SQRT(L82)*N80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P82" s="3" t="e">
+        <f>SQRT(O82)*Q80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K83" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1" t="e">
+        <f>M83/SQRT(ABS(L83))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1" t="e">
+        <f>P83/SQRT(ABS(O83))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K84" s="16"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1" t="e">
+        <f t="shared" ref="N84:N96" si="18">M84/SQRT(ABS(L84))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1" t="e">
+        <f t="shared" ref="Q84:Q96" si="19">P84/SQRT(ABS(O84))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K85" s="16"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K86" s="16"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K87" s="16"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K88" s="16"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K89" s="16"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K90" s="16"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K91" s="16"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K92" s="16"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K93" s="16"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K94" s="16"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K95" s="16"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K96" s="16"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K97" s="16"/>
+      <c r="L97" s="3" t="e">
+        <f>(M97/N96)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M97" s="1">
+        <v>800</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="3" t="e">
+        <f>(P97/Q96)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P97" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K98" s="16"/>
+      <c r="L98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M98" s="3" t="e">
+        <f>SQRT(L98)*N96</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P98" s="3" t="e">
+        <f>SQRT(O98)*Q96</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q98" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="16">
+    <mergeCell ref="K35:K50"/>
+    <mergeCell ref="K51:K66"/>
+    <mergeCell ref="K67:K82"/>
+    <mergeCell ref="K83:K98"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K19:K34"/>
     <mergeCell ref="A35:A50"/>
     <mergeCell ref="A51:A66"/>
     <mergeCell ref="A1:B1"/>
@@ -21056,15 +28607,15 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
       <c r="K1" s="21" t="s">
         <v>53</v>
       </c>
@@ -21092,51 +28643,51 @@
       <c r="AE1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="19"/>
+      <c r="AF1" s="20"/>
       <c r="AG1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="19"/>
+      <c r="AH1" s="20"/>
       <c r="AI1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="20"/>
+      <c r="AJ1" s="19"/>
       <c r="AO1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="19"/>
+      <c r="AP1" s="20"/>
       <c r="AQ1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="19"/>
+      <c r="AR1" s="20"/>
       <c r="AS1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="20"/>
+      <c r="AT1" s="19"/>
       <c r="AY1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="19"/>
+      <c r="AZ1" s="20"/>
       <c r="BA1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="BB1" s="19"/>
+      <c r="BB1" s="20"/>
       <c r="BC1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="20"/>
+      <c r="BD1" s="19"/>
       <c r="BI1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="19"/>
+      <c r="BJ1" s="20"/>
       <c r="BK1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="19"/>
+      <c r="BL1" s="20"/>
       <c r="BM1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BN1" s="20"/>
+      <c r="BN1" s="19"/>
       <c r="BS1" s="6" t="s">
         <v>67</v>
       </c>
@@ -33420,19 +40971,26 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AY3:AY18"/>
-    <mergeCell ref="AY19:AY34"/>
-    <mergeCell ref="AY35:AY50"/>
-    <mergeCell ref="AY51:AY66"/>
-    <mergeCell ref="BI3:BI18"/>
-    <mergeCell ref="BI19:BI34"/>
-    <mergeCell ref="BI35:BI50"/>
-    <mergeCell ref="BI51:BI66"/>
-    <mergeCell ref="AE51:AE66"/>
-    <mergeCell ref="AO3:AO18"/>
-    <mergeCell ref="AO19:AO34"/>
-    <mergeCell ref="AO35:AO50"/>
-    <mergeCell ref="AO51:AO66"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
@@ -33449,26 +41007,19 @@
     <mergeCell ref="AE3:AE18"/>
     <mergeCell ref="AE19:AE34"/>
     <mergeCell ref="AE35:AE50"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AE51:AE66"/>
+    <mergeCell ref="AO3:AO18"/>
+    <mergeCell ref="AO19:AO34"/>
+    <mergeCell ref="AO35:AO50"/>
+    <mergeCell ref="AO51:AO66"/>
+    <mergeCell ref="AY3:AY18"/>
+    <mergeCell ref="AY19:AY34"/>
+    <mergeCell ref="AY35:AY50"/>
+    <mergeCell ref="AY51:AY66"/>
+    <mergeCell ref="BI3:BI18"/>
+    <mergeCell ref="BI19:BI34"/>
+    <mergeCell ref="BI35:BI50"/>
+    <mergeCell ref="BI51:BI66"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/探头测试记录.xlsx
+++ b/探头测试记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68C338-E1D6-4755-950F-D17572A14050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CADEA-10CE-4103-8D3F-70352A6FC817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10-12-v2.2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="12-5-v2.4" sheetId="17" r:id="rId11"/>
     <sheet name="12-27-v3.0" sheetId="18" r:id="rId12"/>
     <sheet name="12-30-v3.0" sheetId="19" r:id="rId13"/>
-    <sheet name="模板" sheetId="15" r:id="rId14"/>
+    <sheet name="1-17" sheetId="20" r:id="rId14"/>
+    <sheet name="模板" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="106">
   <si>
     <t>型号</t>
   </si>
@@ -361,6 +362,30 @@
     <t>日期：2024-1-3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>日期：2024-1-17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VT650(L/min)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差(%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度湿度：20℃，15%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照比例：21.06781</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -378,6 +403,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -385,18 +411,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,10 +595,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +613,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1758,15 +1788,15 @@
       <c r="A1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="K1" s="21" t="s">
         <v>73</v>
       </c>
@@ -4480,15 +4510,15 @@
       <c r="A1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5810,15 +5840,15 @@
       <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6315,7 +6345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B1AA0D-A2BB-4109-B1E2-B63735DD0F35}">
   <dimension ref="A1:AG98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -6331,51 +6361,51 @@
       <c r="A1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="K1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="20"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="20"/>
       <c r="S1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="20"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="20"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="19"/>
+      <c r="X1" s="20"/>
       <c r="AA1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="20"/>
+      <c r="AB1" s="19"/>
       <c r="AC1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="20"/>
+      <c r="AD1" s="19"/>
       <c r="AE1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AF1" s="19"/>
+      <c r="AF1" s="20"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13801,11 +13831,22 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AA3:AA18"/>
-    <mergeCell ref="AA19:AA34"/>
-    <mergeCell ref="AA35:AA50"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K19:K34"/>
+    <mergeCell ref="K35:K50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="K51:K66"/>
+    <mergeCell ref="K67:K82"/>
+    <mergeCell ref="K83:K98"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="S51:S66"/>
     <mergeCell ref="S67:S82"/>
@@ -13818,22 +13859,11 @@
     <mergeCell ref="S3:S18"/>
     <mergeCell ref="S19:S34"/>
     <mergeCell ref="S35:S50"/>
-    <mergeCell ref="K51:K66"/>
-    <mergeCell ref="K67:K82"/>
-    <mergeCell ref="K83:K98"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A35:A50"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="K19:K34"/>
-    <mergeCell ref="K35:K50"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AA3:AA18"/>
+    <mergeCell ref="AA19:AA34"/>
+    <mergeCell ref="AA35:AA50"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13841,11 +13871,352 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB2E209-6BA2-427F-8317-1F5DE2950C30}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="25">
+        <v>69.7</v>
+      </c>
+      <c r="C3" s="25">
+        <v>71.244725284041195</v>
+      </c>
+      <c r="D3" s="25">
+        <v>11.435802499999999</v>
+      </c>
+      <c r="E3" s="1">
+        <f>B3/SQRT(ABS(D3))</f>
+        <v>20.611018586226852</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(B3-C3)/B3*100</f>
+        <v>-2.2162486141193574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="25">
+        <v>79.36</v>
+      </c>
+      <c r="C4" s="25">
+        <v>80.893611109174287</v>
+      </c>
+      <c r="D4" s="25">
+        <v>14.743128799999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E16" si="0">B4/SQRT(ABS(D4))</f>
+        <v>20.668398637112915</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F16" si="1">(B4-C4)/B4*100</f>
+        <v>-1.9324736758748586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="25">
+        <v>88.46</v>
+      </c>
+      <c r="C5" s="25">
+        <v>90.710312701136147</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18.538497899999999</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>20.545166443645805</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.5438759904320065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="25">
+        <v>97.99</v>
+      </c>
+      <c r="C6" s="25">
+        <v>100.03157989069605</v>
+      </c>
+      <c r="D6" s="25">
+        <v>22.544233299999998</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>20.637829614965558</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.0834573841168038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="25">
+        <v>110.3</v>
+      </c>
+      <c r="C7" s="25">
+        <v>112.20440922065872</v>
+      </c>
+      <c r="D7" s="25">
+        <v>28.364887199999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>20.710232861082194</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.7265722762091757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="25">
+        <v>119.9</v>
+      </c>
+      <c r="C8" s="25">
+        <v>121.3675315679825</v>
+      </c>
+      <c r="D8" s="25">
+        <v>33.186866799999997</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>20.81306578757496</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.2239629424374399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="25">
+        <v>130.1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>131.08251149274466</v>
+      </c>
+      <c r="D9" s="25">
+        <v>38.7124557</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>20.909899038299312</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.7551971504570818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="25">
+        <v>140.1</v>
+      </c>
+      <c r="C10" s="25">
+        <v>141.18521610470626</v>
+      </c>
+      <c r="D10" s="25">
+        <v>44.909648900000001</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>20.905872884105829</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.77460107402302814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="25">
+        <v>149.5</v>
+      </c>
+      <c r="C11" s="25">
+        <v>150.49269488894313</v>
+      </c>
+      <c r="D11" s="25">
+        <v>51.026062000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>20.928840415305817</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.66400995915928718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="25">
+        <v>159.5</v>
+      </c>
+      <c r="C12" s="25">
+        <v>161.48988924451726</v>
+      </c>
+      <c r="D12" s="25">
+        <v>58.755954699999997</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>20.808211032407321</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.2475794636471835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="25">
+        <v>179.1</v>
+      </c>
+      <c r="C13" s="25">
+        <v>181.1971165177147</v>
+      </c>
+      <c r="D13" s="25">
+        <v>73.971389799999997</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>20.823978016400218</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.1709193287072641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="25">
+        <v>200.3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>202.08366305754791</v>
+      </c>
+      <c r="D14" s="25">
+        <v>92.007583600000004</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>20.881857935236919</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.89049578509630445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="25">
+        <v>250.2</v>
+      </c>
+      <c r="C15" s="25">
+        <v>253.51101670481489</v>
+      </c>
+      <c r="D15" s="25">
+        <v>144.79544100000001</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>20.792650869834507</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3233480035231431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="25">
+        <v>300.7</v>
+      </c>
+      <c r="C16" s="25">
+        <v>306.99829696541792</v>
+      </c>
+      <c r="D16" s="25">
+        <v>212.34065200000001</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>20.635588306581457</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.0945450500225915</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="K1" sqref="K1:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13857,27 +14228,27 @@
       <c r="A1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="K1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="20"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16431,22 +16802,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K35:K50"/>
-    <mergeCell ref="K51:K66"/>
-    <mergeCell ref="K67:K82"/>
-    <mergeCell ref="K83:K98"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="K19:K34"/>
-    <mergeCell ref="A35:A50"/>
     <mergeCell ref="A51:A66"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K19:K34"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="K35:K50"/>
+    <mergeCell ref="K51:K66"/>
+    <mergeCell ref="K67:K82"/>
+    <mergeCell ref="K83:K98"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28607,15 +28978,15 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="K1" s="21" t="s">
         <v>53</v>
       </c>
@@ -28643,51 +29014,51 @@
       <c r="AE1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="20"/>
+      <c r="AF1" s="19"/>
       <c r="AG1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="20"/>
+      <c r="AH1" s="19"/>
       <c r="AI1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="19"/>
+      <c r="AJ1" s="20"/>
       <c r="AO1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="20"/>
+      <c r="AP1" s="19"/>
       <c r="AQ1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="20"/>
+      <c r="AR1" s="19"/>
       <c r="AS1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="19"/>
+      <c r="AT1" s="20"/>
       <c r="AY1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="20"/>
+      <c r="AZ1" s="19"/>
       <c r="BA1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="BB1" s="20"/>
+      <c r="BB1" s="19"/>
       <c r="BC1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="19"/>
+      <c r="BD1" s="20"/>
       <c r="BI1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="20"/>
+      <c r="BJ1" s="19"/>
       <c r="BK1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="20"/>
+      <c r="BL1" s="19"/>
       <c r="BM1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BN1" s="19"/>
+      <c r="BN1" s="20"/>
       <c r="BS1" s="6" t="s">
         <v>67</v>
       </c>
@@ -40971,26 +41342,19 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="AY3:AY18"/>
+    <mergeCell ref="AY19:AY34"/>
+    <mergeCell ref="AY35:AY50"/>
+    <mergeCell ref="AY51:AY66"/>
+    <mergeCell ref="BI3:BI18"/>
+    <mergeCell ref="BI19:BI34"/>
+    <mergeCell ref="BI35:BI50"/>
+    <mergeCell ref="BI51:BI66"/>
+    <mergeCell ref="AE51:AE66"/>
+    <mergeCell ref="AO3:AO18"/>
+    <mergeCell ref="AO19:AO34"/>
+    <mergeCell ref="AO35:AO50"/>
+    <mergeCell ref="AO51:AO66"/>
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
@@ -41007,19 +41371,26 @@
     <mergeCell ref="AE3:AE18"/>
     <mergeCell ref="AE19:AE34"/>
     <mergeCell ref="AE35:AE50"/>
-    <mergeCell ref="AE51:AE66"/>
-    <mergeCell ref="AO3:AO18"/>
-    <mergeCell ref="AO19:AO34"/>
-    <mergeCell ref="AO35:AO50"/>
-    <mergeCell ref="AO51:AO66"/>
-    <mergeCell ref="AY3:AY18"/>
-    <mergeCell ref="AY19:AY34"/>
-    <mergeCell ref="AY35:AY50"/>
-    <mergeCell ref="AY51:AY66"/>
-    <mergeCell ref="BI3:BI18"/>
-    <mergeCell ref="BI19:BI34"/>
-    <mergeCell ref="BI35:BI50"/>
-    <mergeCell ref="BI51:BI66"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
